--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6552,28 +6552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4498.129788719431</v>
+        <v>4675.090679342735</v>
       </c>
       <c r="AB2" t="n">
-        <v>6154.539620407118</v>
+        <v>6396.665317921441</v>
       </c>
       <c r="AC2" t="n">
-        <v>5567.15899698584</v>
+        <v>5786.176557754936</v>
       </c>
       <c r="AD2" t="n">
-        <v>4498129.788719431</v>
+        <v>4675090.679342735</v>
       </c>
       <c r="AE2" t="n">
-        <v>6154539.620407118</v>
+        <v>6396665.317921441</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.201371951941282e-07</v>
+        <v>1.048372697327449e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.67361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>5567158.99698584</v>
+        <v>5786176.557754936</v>
       </c>
     </row>
     <row r="3">
@@ -6658,28 +6658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2119.116994482227</v>
+        <v>2233.590979878047</v>
       </c>
       <c r="AB3" t="n">
-        <v>2899.469360694266</v>
+        <v>3056.097717748812</v>
       </c>
       <c r="AC3" t="n">
-        <v>2622.748074340412</v>
+        <v>2764.428040826836</v>
       </c>
       <c r="AD3" t="n">
-        <v>2119116.994482227</v>
+        <v>2233590.979878047</v>
       </c>
       <c r="AE3" t="n">
-        <v>2899469.360694266</v>
+        <v>3056097.717748811</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.866922431212807e-07</v>
+        <v>1.668052192917266e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.53602430555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>2622748.074340411</v>
+        <v>2764428.040826836</v>
       </c>
     </row>
     <row r="4">
@@ -6764,28 +6764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1715.083661835265</v>
+        <v>1819.05782217193</v>
       </c>
       <c r="AB4" t="n">
-        <v>2346.653130274061</v>
+        <v>2488.915163462906</v>
       </c>
       <c r="AC4" t="n">
-        <v>2122.691849069058</v>
+        <v>2251.376593476376</v>
       </c>
       <c r="AD4" t="n">
-        <v>1715083.661835265</v>
+        <v>1819057.82217193</v>
       </c>
       <c r="AE4" t="n">
-        <v>2346653.130274061</v>
+        <v>2488915.163462906</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.128608614198528e-06</v>
+        <v>1.907968859574557e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.95355902777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>2122691.849069058</v>
+        <v>2251376.593476376</v>
       </c>
     </row>
     <row r="5">
@@ -6870,28 +6870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1547.484105633857</v>
+        <v>1641.129122620513</v>
       </c>
       <c r="AB5" t="n">
-        <v>2117.336023508716</v>
+        <v>2245.465267076433</v>
       </c>
       <c r="AC5" t="n">
-        <v>1915.260445124817</v>
+        <v>2031.161213516954</v>
       </c>
       <c r="AD5" t="n">
-        <v>1547484.105633857</v>
+        <v>1641129.122620513</v>
       </c>
       <c r="AE5" t="n">
-        <v>2117336.023508716</v>
+        <v>2245465.267076433</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.205822323988583e-06</v>
+        <v>2.038502467025596e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.80338541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1915260.445124817</v>
+        <v>2031161.213516954</v>
       </c>
     </row>
     <row r="6">
@@ -6976,28 +6976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1461.953802860129</v>
+        <v>1545.184425150755</v>
       </c>
       <c r="AB6" t="n">
-        <v>2000.309689923052</v>
+        <v>2114.189499216993</v>
       </c>
       <c r="AC6" t="n">
-        <v>1809.402940569078</v>
+        <v>1912.414220695322</v>
       </c>
       <c r="AD6" t="n">
-        <v>1461953.802860129</v>
+        <v>1545184.425150755</v>
       </c>
       <c r="AE6" t="n">
-        <v>2000309.689923052</v>
+        <v>2114189.499216993</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.253065536991929e-06</v>
+        <v>2.11836946263651e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.16970486111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1809402.940569078</v>
+        <v>1912414.220695322</v>
       </c>
     </row>
     <row r="7">
@@ -7082,28 +7082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1394.819576444039</v>
+        <v>1478.135450080685</v>
       </c>
       <c r="AB7" t="n">
-        <v>1908.453679587518</v>
+        <v>2022.450133534109</v>
       </c>
       <c r="AC7" t="n">
-        <v>1726.313538939246</v>
+        <v>1829.430331316203</v>
       </c>
       <c r="AD7" t="n">
-        <v>1394819.576444039</v>
+        <v>1478135.450080685</v>
       </c>
       <c r="AE7" t="n">
-        <v>1908453.679587518</v>
+        <v>2022450.133534109</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.286117112887551e-06</v>
+        <v>2.174244791581695e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.75303819444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1726313.538939246</v>
+        <v>1829430.331316203</v>
       </c>
     </row>
     <row r="8">
@@ -7188,28 +7188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1354.583007097123</v>
+        <v>1437.728288533177</v>
       </c>
       <c r="AB8" t="n">
-        <v>1853.400230294909</v>
+        <v>1967.163272466654</v>
       </c>
       <c r="AC8" t="n">
-        <v>1676.514313579123</v>
+        <v>1779.419970673429</v>
       </c>
       <c r="AD8" t="n">
-        <v>1354583.007097123</v>
+        <v>1437728.288533177</v>
       </c>
       <c r="AE8" t="n">
-        <v>1853400.230294909</v>
+        <v>1967163.272466653</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.309925451456432e-06</v>
+        <v>2.2144939692117e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.46875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1676514.313579123</v>
+        <v>1779419.970673429</v>
       </c>
     </row>
     <row r="9">
@@ -7294,28 +7294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1325.680866418317</v>
+        <v>1408.826147854372</v>
       </c>
       <c r="AB9" t="n">
-        <v>1813.855046345711</v>
+        <v>1927.618088517455</v>
       </c>
       <c r="AC9" t="n">
-        <v>1640.743266484022</v>
+        <v>1743.648923578328</v>
       </c>
       <c r="AD9" t="n">
-        <v>1325680.866418317</v>
+        <v>1408826.147854372</v>
       </c>
       <c r="AE9" t="n">
-        <v>1813855.046345711</v>
+        <v>1927618.088517455</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.326544605437846e-06</v>
+        <v>2.242589473596568e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.2734375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1640743.266484022</v>
+        <v>1743648.923578328</v>
       </c>
     </row>
     <row r="10">
@@ -7400,28 +7400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1299.403892484337</v>
+        <v>1372.305371424954</v>
       </c>
       <c r="AB10" t="n">
-        <v>1777.901731350966</v>
+        <v>1877.648751023781</v>
       </c>
       <c r="AC10" t="n">
-        <v>1608.221285411581</v>
+        <v>1698.448589522644</v>
       </c>
       <c r="AD10" t="n">
-        <v>1299403.892484337</v>
+        <v>1372305.371424954</v>
       </c>
       <c r="AE10" t="n">
-        <v>1777901.731350966</v>
+        <v>1877648.751023781</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.341950000982416e-06</v>
+        <v>2.268633059121866e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.09982638888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1608221.285411581</v>
+        <v>1698448.589522644</v>
       </c>
     </row>
     <row r="11">
@@ -7506,28 +7506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1269.01582010959</v>
+        <v>1352.246352891665</v>
       </c>
       <c r="AB11" t="n">
-        <v>1736.323430100701</v>
+        <v>1850.203116925094</v>
       </c>
       <c r="AC11" t="n">
-        <v>1570.611158877129</v>
+        <v>1673.622328222146</v>
       </c>
       <c r="AD11" t="n">
-        <v>1269015.82010959</v>
+        <v>1352246.352891665</v>
       </c>
       <c r="AE11" t="n">
-        <v>1736323.430100701</v>
+        <v>1850203.116925094</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.353247291048433e-06</v>
+        <v>2.287731688507084e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.97395833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1570611.158877129</v>
+        <v>1673622.328222146</v>
       </c>
     </row>
     <row r="12">
@@ -7612,28 +7612,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1251.838521662328</v>
+        <v>1335.069054444403</v>
       </c>
       <c r="AB12" t="n">
-        <v>1712.820692556232</v>
+        <v>1826.700379380626</v>
       </c>
       <c r="AC12" t="n">
-        <v>1549.351489617605</v>
+        <v>1652.362658962623</v>
       </c>
       <c r="AD12" t="n">
-        <v>1251838.521662328</v>
+        <v>1335069.054444403</v>
       </c>
       <c r="AE12" t="n">
-        <v>1712820.692556232</v>
+        <v>1826700.379380626</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.362023698207158e-06</v>
+        <v>2.30256864026089e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.87630208333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1549351.489617605</v>
+        <v>1652362.658962623</v>
       </c>
     </row>
     <row r="13">
@@ -7718,28 +7718,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1235.708709134589</v>
+        <v>1318.939241916664</v>
       </c>
       <c r="AB13" t="n">
-        <v>1690.751171458672</v>
+        <v>1804.630858283066</v>
       </c>
       <c r="AC13" t="n">
-        <v>1529.388252638829</v>
+        <v>1632.399421983847</v>
       </c>
       <c r="AD13" t="n">
-        <v>1235708.709134589</v>
+        <v>1318939.241916664</v>
       </c>
       <c r="AE13" t="n">
-        <v>1690751.171458672</v>
+        <v>1804630.858283066</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.370053177097055e-06</v>
+        <v>2.3161428727165e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.78949652777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>1529388.252638829</v>
+        <v>1632399.421983847</v>
       </c>
     </row>
     <row r="14">
@@ -7824,28 +7824,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1219.320999769648</v>
+        <v>1302.551532551722</v>
       </c>
       <c r="AB14" t="n">
-        <v>1668.328784530848</v>
+        <v>1782.208471355241</v>
       </c>
       <c r="AC14" t="n">
-        <v>1509.105826849378</v>
+        <v>1612.116996194396</v>
       </c>
       <c r="AD14" t="n">
-        <v>1219320.999769648</v>
+        <v>1302551.532551722</v>
       </c>
       <c r="AE14" t="n">
-        <v>1668328.784530848</v>
+        <v>1782208.471355241</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.378362754087762e-06</v>
+        <v>2.330190624908933e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.70052083333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1509105.826849378</v>
+        <v>1612116.996194396</v>
       </c>
     </row>
     <row r="15">
@@ -7930,28 +7930,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1209.452758169855</v>
+        <v>1292.68329095193</v>
       </c>
       <c r="AB15" t="n">
-        <v>1654.826621017918</v>
+        <v>1768.706307842312</v>
       </c>
       <c r="AC15" t="n">
-        <v>1496.892290871717</v>
+        <v>1599.903460216735</v>
       </c>
       <c r="AD15" t="n">
-        <v>1209452.758169855</v>
+        <v>1292683.29095193</v>
       </c>
       <c r="AE15" t="n">
-        <v>1654826.621017918</v>
+        <v>1768706.307842312</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.3820973954319e-06</v>
+        <v>2.336504221399915e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.66145833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1496892.290871717</v>
+        <v>1599903.460216735</v>
       </c>
     </row>
     <row r="16">
@@ -8036,28 +8036,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1195.13684881508</v>
+        <v>1278.367381597155</v>
       </c>
       <c r="AB16" t="n">
-        <v>1635.238962265368</v>
+        <v>1749.118649089762</v>
       </c>
       <c r="AC16" t="n">
-        <v>1479.174050779059</v>
+        <v>1582.185220124077</v>
       </c>
       <c r="AD16" t="n">
-        <v>1195136.84881508</v>
+        <v>1278367.381597155</v>
       </c>
       <c r="AE16" t="n">
-        <v>1635238.962265368</v>
+        <v>1749118.649089762</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.388726383817745e-06</v>
+        <v>2.347710855171407e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.58984375</v>
       </c>
       <c r="AH16" t="n">
-        <v>1479174.050779059</v>
+        <v>1582185.220124077</v>
       </c>
     </row>
     <row r="17">
@@ -8142,28 +8142,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1185.684042688518</v>
+        <v>1268.914575470593</v>
       </c>
       <c r="AB17" t="n">
-        <v>1622.305215894632</v>
+        <v>1736.184902719026</v>
       </c>
       <c r="AC17" t="n">
-        <v>1467.474683009319</v>
+        <v>1570.485852354337</v>
       </c>
       <c r="AD17" t="n">
-        <v>1185684.042688518</v>
+        <v>1268914.575470593</v>
       </c>
       <c r="AE17" t="n">
-        <v>1622305.215894632</v>
+        <v>1736184.902719026</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.391714096893055e-06</v>
+        <v>2.352761732364191e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.55946180555556</v>
       </c>
       <c r="AH17" t="n">
-        <v>1467474.683009319</v>
+        <v>1570485.852354337</v>
       </c>
     </row>
     <row r="18">
@@ -8248,28 +8248,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1173.825214300737</v>
+        <v>1246.811944587374</v>
       </c>
       <c r="AB18" t="n">
-        <v>1606.079443719885</v>
+        <v>1705.94310804535</v>
       </c>
       <c r="AC18" t="n">
-        <v>1452.797475757915</v>
+        <v>1543.130292119691</v>
       </c>
       <c r="AD18" t="n">
-        <v>1173825.214300737</v>
+        <v>1246811.944587374</v>
       </c>
       <c r="AE18" t="n">
-        <v>1606079.443719885</v>
+        <v>1705943.10804535</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.396662496674038e-06</v>
+        <v>2.361127247714742e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.50737847222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>1452797.475757915</v>
+        <v>1543130.292119691</v>
       </c>
     </row>
     <row r="19">
@@ -8354,28 +8354,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1164.458876898266</v>
+        <v>1237.275014984312</v>
       </c>
       <c r="AB19" t="n">
-        <v>1593.264007672182</v>
+        <v>1692.8942602228</v>
       </c>
       <c r="AC19" t="n">
-        <v>1441.205126940028</v>
+        <v>1531.326808019153</v>
       </c>
       <c r="AD19" t="n">
-        <v>1164458.876898266</v>
+        <v>1237275.014984312</v>
       </c>
       <c r="AE19" t="n">
-        <v>1593264.007672182</v>
+        <v>1692894.2602228</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.399743575782952e-06</v>
+        <v>2.366335964819801e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.47482638888889</v>
       </c>
       <c r="AH19" t="n">
-        <v>1441205.126940028</v>
+        <v>1531326.808019153</v>
       </c>
     </row>
     <row r="20">
@@ -8460,28 +8460,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1154.120093412122</v>
+        <v>1226.936231498167</v>
       </c>
       <c r="AB20" t="n">
-        <v>1579.118027991503</v>
+        <v>1678.748280542121</v>
       </c>
       <c r="AC20" t="n">
-        <v>1428.409219706065</v>
+        <v>1518.53090078519</v>
       </c>
       <c r="AD20" t="n">
-        <v>1154120.093412122</v>
+        <v>1226936.231498167</v>
       </c>
       <c r="AE20" t="n">
-        <v>1579118.027991503</v>
+        <v>1678748.280542121</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.403104752992676e-06</v>
+        <v>2.372018201661685e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.44010416666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>1428409.219706065</v>
+        <v>1518530.90078519</v>
       </c>
     </row>
     <row r="21">
@@ -8566,28 +8566,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1144.523680485051</v>
+        <v>1217.339818571096</v>
       </c>
       <c r="AB21" t="n">
-        <v>1565.987792460827</v>
+        <v>1665.618045011444</v>
       </c>
       <c r="AC21" t="n">
-        <v>1416.532115426035</v>
+        <v>1506.65379650516</v>
       </c>
       <c r="AD21" t="n">
-        <v>1144523.680485051</v>
+        <v>1217339.818571097</v>
       </c>
       <c r="AE21" t="n">
-        <v>1565987.792460826</v>
+        <v>1665618.045011444</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.40618583210159e-06</v>
+        <v>2.377226918766744e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.40972222222222</v>
       </c>
       <c r="AH21" t="n">
-        <v>1416532.115426035</v>
+        <v>1506653.79650516</v>
       </c>
     </row>
     <row r="22">
@@ -8672,28 +8672,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1136.995607665254</v>
+        <v>1209.811745751299</v>
       </c>
       <c r="AB22" t="n">
-        <v>1555.687551113646</v>
+        <v>1655.317803664264</v>
       </c>
       <c r="AC22" t="n">
-        <v>1407.21491465655</v>
+        <v>1497.336595735675</v>
       </c>
       <c r="AD22" t="n">
-        <v>1136995.607665254</v>
+        <v>1209811.745751299</v>
       </c>
       <c r="AE22" t="n">
-        <v>1555687.551113646</v>
+        <v>1655317.803664264</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.407866420706453e-06</v>
+        <v>2.380068037187686e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>14.39236111111111</v>
       </c>
       <c r="AH22" t="n">
-        <v>1407214.91465655</v>
+        <v>1497336.595735675</v>
       </c>
     </row>
     <row r="23">
@@ -8778,28 +8778,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1125.79968324204</v>
+        <v>1198.615821328085</v>
       </c>
       <c r="AB23" t="n">
-        <v>1540.368793388479</v>
+        <v>1639.999045939097</v>
       </c>
       <c r="AC23" t="n">
-        <v>1393.358157668661</v>
+        <v>1483.479838747786</v>
       </c>
       <c r="AD23" t="n">
-        <v>1125799.68324204</v>
+        <v>1198615.821328085</v>
       </c>
       <c r="AE23" t="n">
-        <v>1540368.793388479</v>
+        <v>1639999.045939097</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.41132096394978e-06</v>
+        <v>2.385908113941843e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>14.35763888888889</v>
       </c>
       <c r="AH23" t="n">
-        <v>1393358.157668661</v>
+        <v>1483479.838747786</v>
       </c>
     </row>
     <row r="24">
@@ -8884,28 +8884,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1118.754616551744</v>
+        <v>1191.570754637789</v>
       </c>
       <c r="AB24" t="n">
-        <v>1530.729422336409</v>
+        <v>1630.359674887027</v>
       </c>
       <c r="AC24" t="n">
-        <v>1384.638754660859</v>
+        <v>1474.760435739984</v>
       </c>
       <c r="AD24" t="n">
-        <v>1118754.616551744</v>
+        <v>1191570.754637789</v>
       </c>
       <c r="AE24" t="n">
-        <v>1530729.422336409</v>
+        <v>1630359.674887027</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.412628088420229e-06</v>
+        <v>2.388117872713687e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>14.34461805555556</v>
       </c>
       <c r="AH24" t="n">
-        <v>1384638.754660859</v>
+        <v>1474760.435739984</v>
       </c>
     </row>
     <row r="25">
@@ -8990,28 +8990,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1112.441214361794</v>
+        <v>1185.257352447839</v>
       </c>
       <c r="AB25" t="n">
-        <v>1522.091146932473</v>
+        <v>1621.721399483091</v>
       </c>
       <c r="AC25" t="n">
-        <v>1376.824904137579</v>
+        <v>1466.946585216704</v>
       </c>
       <c r="AD25" t="n">
-        <v>1112441.214361794</v>
+        <v>1185257.352447839</v>
       </c>
       <c r="AE25" t="n">
-        <v>1522091.146932473</v>
+        <v>1621721.399483091</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.414121944957884e-06</v>
+        <v>2.390643311310079e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>14.32725694444444</v>
       </c>
       <c r="AH25" t="n">
-        <v>1376824.904137579</v>
+        <v>1466946.585216704</v>
       </c>
     </row>
     <row r="26">
@@ -9096,28 +9096,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1108.55483265603</v>
+        <v>1181.370970742076</v>
       </c>
       <c r="AB26" t="n">
-        <v>1516.773628027586</v>
+        <v>1616.403880578205</v>
       </c>
       <c r="AC26" t="n">
-        <v>1372.01488177379</v>
+        <v>1462.136562852915</v>
       </c>
       <c r="AD26" t="n">
-        <v>1108554.83265603</v>
+        <v>1181370.970742075</v>
       </c>
       <c r="AE26" t="n">
-        <v>1516773.628027586</v>
+        <v>1616403.880578205</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.415615801495539e-06</v>
+        <v>2.393168749906472e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>14.31423611111111</v>
       </c>
       <c r="AH26" t="n">
-        <v>1372014.88177379</v>
+        <v>1462136.562852915</v>
       </c>
     </row>
     <row r="27">
@@ -9202,28 +9202,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1112.655414430979</v>
+        <v>1185.471552517025</v>
       </c>
       <c r="AB27" t="n">
-        <v>1522.384224916972</v>
+        <v>1622.01447746759</v>
       </c>
       <c r="AC27" t="n">
-        <v>1377.090011170575</v>
+        <v>1467.2116922497</v>
       </c>
       <c r="AD27" t="n">
-        <v>1112655.414430979</v>
+        <v>1185471.552517025</v>
       </c>
       <c r="AE27" t="n">
-        <v>1522384.224916972</v>
+        <v>1622014.47746759</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.415709167529142e-06</v>
+        <v>2.393326589818747e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>15</v>
+        <v>14.31206597222222</v>
       </c>
       <c r="AH27" t="n">
-        <v>1377090.011170575</v>
+        <v>1467211.6922497</v>
       </c>
     </row>
   </sheetData>
@@ -9499,28 +9499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3119.664885594025</v>
+        <v>3260.932835408067</v>
       </c>
       <c r="AB2" t="n">
-        <v>4268.463126371311</v>
+        <v>4461.752167608985</v>
       </c>
       <c r="AC2" t="n">
-        <v>3861.086996415896</v>
+        <v>4035.928802840713</v>
       </c>
       <c r="AD2" t="n">
-        <v>3119664.885594025</v>
+        <v>3260932.835408067</v>
       </c>
       <c r="AE2" t="n">
-        <v>4268463.126371311</v>
+        <v>4461752.167608986</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.617726422883055e-07</v>
+        <v>1.319231011661524e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.51519097222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>3861086.996415895</v>
+        <v>4035928.802840712</v>
       </c>
     </row>
     <row r="3">
@@ -9605,28 +9605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1713.985458539111</v>
+        <v>1804.800658642403</v>
       </c>
       <c r="AB3" t="n">
-        <v>2345.150520074953</v>
+        <v>2469.407883340143</v>
       </c>
       <c r="AC3" t="n">
-        <v>2121.332645878426</v>
+        <v>2233.731060789891</v>
       </c>
       <c r="AD3" t="n">
-        <v>1713985.458539111</v>
+        <v>1804800.658642403</v>
       </c>
       <c r="AE3" t="n">
-        <v>2345150.520074953</v>
+        <v>2469407.883340143</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.10281729804081e-06</v>
+        <v>1.909849079643879e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.00607638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>2121332.645878426</v>
+        <v>2233731.060789891</v>
       </c>
     </row>
     <row r="4">
@@ -9711,28 +9711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1439.313126072021</v>
+        <v>1520.037758331453</v>
       </c>
       <c r="AB4" t="n">
-        <v>1969.331717105397</v>
+        <v>2079.782720282182</v>
       </c>
       <c r="AC4" t="n">
-        <v>1781.381461999282</v>
+        <v>1881.291176451831</v>
       </c>
       <c r="AD4" t="n">
-        <v>1439313.126072021</v>
+        <v>1520037.758331453</v>
       </c>
       <c r="AE4" t="n">
-        <v>1969331.717105397</v>
+        <v>2079782.720282182</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.230310627294083e-06</v>
+        <v>2.130640880758779e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.03559027777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1781381.461999282</v>
+        <v>1881291.176451831</v>
       </c>
     </row>
     <row r="5">
@@ -9817,28 +9817,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1318.034005844871</v>
+        <v>1398.673297249732</v>
       </c>
       <c r="AB5" t="n">
-        <v>1803.392274353443</v>
+        <v>1913.72651040803</v>
       </c>
       <c r="AC5" t="n">
-        <v>1631.279046766103</v>
+        <v>1731.083138186713</v>
       </c>
       <c r="AD5" t="n">
-        <v>1318034.005844872</v>
+        <v>1398673.297249732</v>
       </c>
       <c r="AE5" t="n">
-        <v>1803392.274353443</v>
+        <v>1913726.51040803</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.297824140285021e-06</v>
+        <v>2.247560175440078e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.15017361111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1631279.046766103</v>
+        <v>1731083.138186713</v>
       </c>
     </row>
     <row r="6">
@@ -9923,28 +9923,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1242.490557750751</v>
+        <v>1323.215100501632</v>
       </c>
       <c r="AB6" t="n">
-        <v>1700.03039592935</v>
+        <v>1810.481276636586</v>
       </c>
       <c r="AC6" t="n">
-        <v>1537.781880949498</v>
+        <v>1637.691484620821</v>
       </c>
       <c r="AD6" t="n">
-        <v>1242490.557750751</v>
+        <v>1323215.100501632</v>
       </c>
       <c r="AE6" t="n">
-        <v>1700030.39592935</v>
+        <v>1810481.276636586</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.340128744991789e-06</v>
+        <v>2.320822909446385e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.64019097222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1537781.880949498</v>
+        <v>1637691.484620821</v>
       </c>
     </row>
     <row r="7">
@@ -10029,28 +10029,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1199.557078596703</v>
+        <v>1280.111029146992</v>
       </c>
       <c r="AB7" t="n">
-        <v>1641.28691565936</v>
+        <v>1751.50438459175</v>
       </c>
       <c r="AC7" t="n">
-        <v>1484.644795989484</v>
+        <v>1584.343264378155</v>
       </c>
       <c r="AD7" t="n">
-        <v>1199557.078596703</v>
+        <v>1280111.029146992</v>
       </c>
       <c r="AE7" t="n">
-        <v>1641286.91565936</v>
+        <v>1751504.38459175</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.367848885518826e-06</v>
+        <v>2.368828399537276e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.32335069444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1484644.795989484</v>
+        <v>1584343.264378156</v>
       </c>
     </row>
     <row r="8">
@@ -10135,28 +10135,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1168.33550552342</v>
+        <v>1238.969569938992</v>
       </c>
       <c r="AB8" t="n">
-        <v>1598.568181981902</v>
+        <v>1695.212825070282</v>
       </c>
       <c r="AC8" t="n">
-        <v>1446.003078298083</v>
+        <v>1533.424092291717</v>
       </c>
       <c r="AD8" t="n">
-        <v>1168335.50552342</v>
+        <v>1238969.569938992</v>
       </c>
       <c r="AE8" t="n">
-        <v>1598568.181981902</v>
+        <v>1695212.825070282</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.387938743461766e-06</v>
+        <v>2.403619834864472e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.10199652777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1446003.078298083</v>
+        <v>1533424.092291717</v>
       </c>
     </row>
     <row r="9">
@@ -10241,28 +10241,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1132.066159651425</v>
+        <v>1212.705361547735</v>
       </c>
       <c r="AB9" t="n">
-        <v>1548.942862869228</v>
+        <v>1659.276976454266</v>
       </c>
       <c r="AC9" t="n">
-        <v>1401.11392999195</v>
+        <v>1500.917910631333</v>
       </c>
       <c r="AD9" t="n">
-        <v>1132066.159651425</v>
+        <v>1212705.361547735</v>
       </c>
       <c r="AE9" t="n">
-        <v>1548942.862869228</v>
+        <v>1659276.976454266</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.403295894485456e-06</v>
+        <v>2.430215210907858e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.93706597222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1401113.92999195</v>
+        <v>1500917.910631333</v>
       </c>
     </row>
     <row r="10">
@@ -10347,28 +10347,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1109.392545666213</v>
+        <v>1190.031747562522</v>
       </c>
       <c r="AB10" t="n">
-        <v>1517.919823925408</v>
+        <v>1628.253937510447</v>
       </c>
       <c r="AC10" t="n">
-        <v>1373.05168634382</v>
+        <v>1472.855666983203</v>
       </c>
       <c r="AD10" t="n">
-        <v>1109392.545666213</v>
+        <v>1190031.747562522</v>
       </c>
       <c r="AE10" t="n">
-        <v>1517919.823925408</v>
+        <v>1628253.937510447</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.416817914254743e-06</v>
+        <v>2.453632523147317e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.79383680555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>1373051.68634382</v>
+        <v>1472855.666983203</v>
       </c>
     </row>
     <row r="11">
@@ -10453,28 +10453,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1090.019974998156</v>
+        <v>1170.659176894465</v>
       </c>
       <c r="AB11" t="n">
-        <v>1491.413418079873</v>
+        <v>1601.747531664912</v>
       </c>
       <c r="AC11" t="n">
-        <v>1349.075014670208</v>
+        <v>1448.878995309592</v>
       </c>
       <c r="AD11" t="n">
-        <v>1090019.974998156</v>
+        <v>1170659.176894465</v>
       </c>
       <c r="AE11" t="n">
-        <v>1491413.418079873</v>
+        <v>1601747.531664912</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.427249186648192e-06</v>
+        <v>2.4716973068749e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.68532986111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>1349075.014670208</v>
+        <v>1448878.995309592</v>
       </c>
     </row>
     <row r="12">
@@ -10559,28 +10559,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1074.243541245067</v>
+        <v>1154.882743141377</v>
       </c>
       <c r="AB12" t="n">
-        <v>1469.827405411762</v>
+        <v>1580.161518996801</v>
       </c>
       <c r="AC12" t="n">
-        <v>1329.549140754983</v>
+        <v>1429.353121394367</v>
       </c>
       <c r="AD12" t="n">
-        <v>1074243.541245067</v>
+        <v>1154882.743141377</v>
       </c>
       <c r="AE12" t="n">
-        <v>1469827.405411762</v>
+        <v>1580161.518996801</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.434203368243825e-06</v>
+        <v>2.483740496026621e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.61371527777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1329549.140754983</v>
+        <v>1429353.121394367</v>
       </c>
     </row>
     <row r="13">
@@ -10665,28 +10665,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1056.641982138092</v>
+        <v>1137.281184034402</v>
       </c>
       <c r="AB13" t="n">
-        <v>1445.744175715616</v>
+        <v>1556.078289300655</v>
       </c>
       <c r="AC13" t="n">
-        <v>1307.764380700011</v>
+        <v>1407.568361339395</v>
       </c>
       <c r="AD13" t="n">
-        <v>1056641.982138092</v>
+        <v>1137281.184034402</v>
       </c>
       <c r="AE13" t="n">
-        <v>1445744.175715616</v>
+        <v>1556078.289300655</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.442316580105397e-06</v>
+        <v>2.497790883370297e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.53342013888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>1307764.380700011</v>
+        <v>1407568.361339395</v>
       </c>
     </row>
     <row r="14">
@@ -10771,28 +10771,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1044.091276942915</v>
+        <v>1114.640000503916</v>
       </c>
       <c r="AB14" t="n">
-        <v>1428.571747169539</v>
+        <v>1525.099623135722</v>
       </c>
       <c r="AC14" t="n">
-        <v>1292.230864632717</v>
+        <v>1379.546255594412</v>
       </c>
       <c r="AD14" t="n">
-        <v>1044091.276942915</v>
+        <v>1114640.000503916</v>
       </c>
       <c r="AE14" t="n">
-        <v>1428571.747169539</v>
+        <v>1525099.623135722</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.446662943602668e-06</v>
+        <v>2.505317876590123e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.49001736111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>1292230.864632717</v>
+        <v>1379546.255594412</v>
       </c>
     </row>
     <row r="15">
@@ -10877,28 +10877,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1029.486885519136</v>
+        <v>1100.035609080136</v>
       </c>
       <c r="AB15" t="n">
-        <v>1408.589374523247</v>
+        <v>1505.117250489429</v>
       </c>
       <c r="AC15" t="n">
-        <v>1274.155581586351</v>
+        <v>1361.470972548046</v>
       </c>
       <c r="AD15" t="n">
-        <v>1029486.885519136</v>
+        <v>1100035.609080136</v>
       </c>
       <c r="AE15" t="n">
-        <v>1408589.374523247</v>
+        <v>1505117.250489429</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.452747852498847e-06</v>
+        <v>2.515855667097879e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.42708333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1274155.581586351</v>
+        <v>1361470.972548046</v>
       </c>
     </row>
     <row r="16">
@@ -10983,28 +10983,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1015.554034152378</v>
+        <v>1086.102757713378</v>
       </c>
       <c r="AB16" t="n">
-        <v>1389.525832609228</v>
+        <v>1486.05370857541</v>
       </c>
       <c r="AC16" t="n">
-        <v>1256.911437356757</v>
+        <v>1344.226828318452</v>
       </c>
       <c r="AD16" t="n">
-        <v>1015554.034152378</v>
+        <v>1086102.757713378</v>
       </c>
       <c r="AE16" t="n">
-        <v>1389525.832609228</v>
+        <v>1486053.70857541</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.456901044285128e-06</v>
+        <v>2.523048127285714e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.38802083333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1256911.437356757</v>
+        <v>1344226.828318452</v>
       </c>
     </row>
     <row r="17">
@@ -11089,28 +11089,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1003.997402291982</v>
+        <v>1074.546125852982</v>
       </c>
       <c r="AB17" t="n">
-        <v>1373.713539055219</v>
+        <v>1470.241415021402</v>
       </c>
       <c r="AC17" t="n">
-        <v>1242.608246906849</v>
+        <v>1329.923637868545</v>
       </c>
       <c r="AD17" t="n">
-        <v>1003997.402291982</v>
+        <v>1074546.125852982</v>
       </c>
       <c r="AE17" t="n">
-        <v>1373713.539055219</v>
+        <v>1470241.415021402</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.459605448238985e-06</v>
+        <v>2.527731589733606e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.35980902777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>1242608.24690685</v>
+        <v>1329923.637868545</v>
       </c>
     </row>
     <row r="18">
@@ -11195,28 +11195,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>995.1523763591854</v>
+        <v>1065.701099920186</v>
       </c>
       <c r="AB18" t="n">
-        <v>1361.611384358963</v>
+        <v>1458.139260325145</v>
       </c>
       <c r="AC18" t="n">
-        <v>1231.661104869323</v>
+        <v>1318.976495831019</v>
       </c>
       <c r="AD18" t="n">
-        <v>995152.3763591854</v>
+        <v>1065701.099920186</v>
       </c>
       <c r="AE18" t="n">
-        <v>1361611.384358963</v>
+        <v>1458139.260325145</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.462309852192842e-06</v>
+        <v>2.532415052181497e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.33376736111111</v>
       </c>
       <c r="AH18" t="n">
-        <v>1231661.104869323</v>
+        <v>1318976.495831019</v>
       </c>
     </row>
     <row r="19">
@@ -11301,28 +11301,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>995.8369976488647</v>
+        <v>1066.385721209865</v>
       </c>
       <c r="AB19" t="n">
-        <v>1362.548113410862</v>
+        <v>1459.075989377045</v>
       </c>
       <c r="AC19" t="n">
-        <v>1232.508433815216</v>
+        <v>1319.823824776911</v>
       </c>
       <c r="AD19" t="n">
-        <v>995836.9976488646</v>
+        <v>1066385.721209865</v>
       </c>
       <c r="AE19" t="n">
-        <v>1362548.113410862</v>
+        <v>1459075.989377045</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.462213266337347e-06</v>
+        <v>2.532247785665501e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.33376736111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>1232508.433815216</v>
+        <v>1319823.824776911</v>
       </c>
     </row>
     <row r="20">
@@ -11407,28 +11407,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000.083774355484</v>
+        <v>1070.632497916485</v>
       </c>
       <c r="AB20" t="n">
-        <v>1368.358740655425</v>
+        <v>1464.886616621607</v>
       </c>
       <c r="AC20" t="n">
-        <v>1237.764502950825</v>
+        <v>1325.07989391252</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000083.774355485</v>
+        <v>1070632.497916485</v>
       </c>
       <c r="AE20" t="n">
-        <v>1368358.740655425</v>
+        <v>1464886.616621607</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.462213266337347e-06</v>
+        <v>2.532247785665501e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.3359375</v>
       </c>
       <c r="AH20" t="n">
-        <v>1237764.502950825</v>
+        <v>1325079.89391252</v>
       </c>
     </row>
   </sheetData>
@@ -11704,28 +11704,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1250.477852469931</v>
+        <v>1341.460916396493</v>
       </c>
       <c r="AB2" t="n">
-        <v>1710.958964938706</v>
+        <v>1835.446006892522</v>
       </c>
       <c r="AC2" t="n">
-        <v>1547.667442670945</v>
+        <v>1660.273616059349</v>
       </c>
       <c r="AD2" t="n">
-        <v>1250477.852469931</v>
+        <v>1341460.916396493</v>
       </c>
       <c r="AE2" t="n">
-        <v>1710958.964938706</v>
+        <v>1835446.006892522</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.214955965848584e-06</v>
+        <v>2.298958133419072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.25130208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1547667.442670945</v>
+        <v>1660273.616059349</v>
       </c>
     </row>
     <row r="3">
@@ -11810,28 +11810,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>913.2741541919694</v>
+        <v>986.1118277476719</v>
       </c>
       <c r="AB3" t="n">
-        <v>1249.581988577553</v>
+        <v>1349.241706907834</v>
       </c>
       <c r="AC3" t="n">
-        <v>1130.323637387047</v>
+        <v>1220.471972073179</v>
       </c>
       <c r="AD3" t="n">
-        <v>913274.1541919694</v>
+        <v>986111.8277476719</v>
       </c>
       <c r="AE3" t="n">
-        <v>1249581.988577553</v>
+        <v>1349241.706907834</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.456912511872718e-06</v>
+        <v>2.756791985058015e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.0546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1130323.637387047</v>
+        <v>1220471.972073179</v>
       </c>
     </row>
     <row r="4">
@@ -11916,28 +11916,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>816.1568638877789</v>
+        <v>888.9091965889095</v>
       </c>
       <c r="AB4" t="n">
-        <v>1116.701827470897</v>
+        <v>1216.24477867898</v>
       </c>
       <c r="AC4" t="n">
-        <v>1010.125372357933</v>
+        <v>1100.168084012126</v>
       </c>
       <c r="AD4" t="n">
-        <v>816156.8638877788</v>
+        <v>888909.1965889095</v>
       </c>
       <c r="AE4" t="n">
-        <v>1116701.827470897</v>
+        <v>1216244.77867898</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.540007610752277e-06</v>
+        <v>2.914025793349163e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.18663194444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1010125.372357933</v>
+        <v>1100168.084012126</v>
       </c>
     </row>
     <row r="5">
@@ -12022,28 +12022,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>756.1083361474688</v>
+        <v>828.9459201946202</v>
       </c>
       <c r="AB5" t="n">
-        <v>1034.540782662529</v>
+        <v>1134.200378523261</v>
       </c>
       <c r="AC5" t="n">
-        <v>935.8056623523245</v>
+        <v>1025.95388625723</v>
       </c>
       <c r="AD5" t="n">
-        <v>756108.3361474688</v>
+        <v>828945.9201946202</v>
       </c>
       <c r="AE5" t="n">
-        <v>1034540.782662529</v>
+        <v>1134200.378523262</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.582579029763204e-06</v>
+        <v>2.994580079049556e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.77864583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>935805.6623523245</v>
+        <v>1025953.88625723</v>
       </c>
     </row>
     <row r="6">
@@ -12128,28 +12128,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>723.2282208759619</v>
+        <v>796.0658049231133</v>
       </c>
       <c r="AB6" t="n">
-        <v>989.5527583797435</v>
+        <v>1089.212354240476</v>
       </c>
       <c r="AC6" t="n">
-        <v>895.1112319659993</v>
+        <v>985.2594558709047</v>
       </c>
       <c r="AD6" t="n">
-        <v>723228.2208759619</v>
+        <v>796065.8049231133</v>
       </c>
       <c r="AE6" t="n">
-        <v>989552.7583797436</v>
+        <v>1089212.354240476</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.605643039050137e-06</v>
+        <v>3.038222147758124e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.56597222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>895111.2319659994</v>
+        <v>985259.4558709047</v>
       </c>
     </row>
     <row r="7">
@@ -12234,28 +12234,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>726.3379872445447</v>
+        <v>799.1755712916957</v>
       </c>
       <c r="AB7" t="n">
-        <v>993.807677918448</v>
+        <v>1093.46727377918</v>
       </c>
       <c r="AC7" t="n">
-        <v>898.9600679557469</v>
+        <v>989.1082918606522</v>
       </c>
       <c r="AD7" t="n">
-        <v>726337.9872445447</v>
+        <v>799175.5712916957</v>
       </c>
       <c r="AE7" t="n">
-        <v>993807.677918448</v>
+        <v>1093467.27377918</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.606397469260458e-06</v>
+        <v>3.039649692061675e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.55946180555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>898960.0679557469</v>
+        <v>989108.2918606523</v>
       </c>
     </row>
   </sheetData>
@@ -12531,28 +12531,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1754.788232770848</v>
+        <v>1859.251171339546</v>
       </c>
       <c r="AB2" t="n">
-        <v>2400.978675870172</v>
+        <v>2543.909476999456</v>
       </c>
       <c r="AC2" t="n">
-        <v>2171.832640839858</v>
+        <v>2301.122326914002</v>
       </c>
       <c r="AD2" t="n">
-        <v>1754788.232770848</v>
+        <v>1859251.171339546</v>
       </c>
       <c r="AE2" t="n">
-        <v>2400978.675870172</v>
+        <v>2543909.476999456</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.032912247633422e-06</v>
+        <v>1.881741792697879e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.66232638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2171832.640839858</v>
+        <v>2301122.326914002</v>
       </c>
     </row>
     <row r="3">
@@ -12637,28 +12637,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1166.594604380575</v>
+        <v>1251.978940536756</v>
       </c>
       <c r="AB3" t="n">
-        <v>1596.186204235124</v>
+        <v>1713.012819855068</v>
       </c>
       <c r="AC3" t="n">
-        <v>1443.848433164331</v>
+        <v>1549.525280556692</v>
       </c>
       <c r="AD3" t="n">
-        <v>1166594.604380575</v>
+        <v>1251978.940536756</v>
       </c>
       <c r="AE3" t="n">
-        <v>1596186.204235124</v>
+        <v>1713012.819855068</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.316246531571997e-06</v>
+        <v>2.397915324973161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.99869791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1443848.433164331</v>
+        <v>1549525.280556692</v>
       </c>
     </row>
     <row r="4">
@@ -12743,28 +12743,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1026.008413725667</v>
+        <v>1101.981459957447</v>
       </c>
       <c r="AB4" t="n">
-        <v>1403.829975956077</v>
+        <v>1507.779649504648</v>
       </c>
       <c r="AC4" t="n">
-        <v>1269.850413338575</v>
+        <v>1363.879275937952</v>
       </c>
       <c r="AD4" t="n">
-        <v>1026008.413725667</v>
+        <v>1101981.459957446</v>
       </c>
       <c r="AE4" t="n">
-        <v>1403829.975956077</v>
+        <v>1507779.649504648</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.4172900535006e-06</v>
+        <v>2.581994677822425e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.78776041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1269850.413338575</v>
+        <v>1363879.275937952</v>
       </c>
     </row>
     <row r="5">
@@ -12849,28 +12849,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>960.7506829045096</v>
+        <v>1036.553136935697</v>
       </c>
       <c r="AB5" t="n">
-        <v>1314.541469678674</v>
+        <v>1418.257731452397</v>
       </c>
       <c r="AC5" t="n">
-        <v>1189.083476783081</v>
+        <v>1282.901204099808</v>
       </c>
       <c r="AD5" t="n">
-        <v>960750.6829045096</v>
+        <v>1036553.136935697</v>
       </c>
       <c r="AE5" t="n">
-        <v>1314541.469678674</v>
+        <v>1418257.731452397</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.469873927157323e-06</v>
+        <v>2.677791075733776e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.22352430555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1189083.476783081</v>
+        <v>1282901.204099807</v>
       </c>
     </row>
     <row r="6">
@@ -12955,28 +12955,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>909.9199744134456</v>
+        <v>985.8076797906538</v>
       </c>
       <c r="AB6" t="n">
-        <v>1244.992651828609</v>
+        <v>1348.825558254981</v>
       </c>
       <c r="AC6" t="n">
-        <v>1126.172300496247</v>
+        <v>1220.095540063686</v>
       </c>
       <c r="AD6" t="n">
-        <v>909919.9744134457</v>
+        <v>985807.6797906538</v>
       </c>
       <c r="AE6" t="n">
-        <v>1244992.651828609</v>
+        <v>1348825.558254981</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.500290089370525e-06</v>
+        <v>2.733202717662891e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.91536458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1126172.300496247</v>
+        <v>1220095.540063686</v>
       </c>
     </row>
     <row r="7">
@@ -13061,28 +13061,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>876.4958692024072</v>
+        <v>952.3835745796151</v>
       </c>
       <c r="AB7" t="n">
-        <v>1199.260316511414</v>
+        <v>1303.093222937786</v>
       </c>
       <c r="AC7" t="n">
-        <v>1084.804595075989</v>
+        <v>1178.727834643428</v>
       </c>
       <c r="AD7" t="n">
-        <v>876495.8692024072</v>
+        <v>952383.5745796151</v>
       </c>
       <c r="AE7" t="n">
-        <v>1199260.316511414</v>
+        <v>1303093.222937786</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.523591962794876e-06</v>
+        <v>2.775653670462823e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.68532986111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1084804.595075989</v>
+        <v>1178727.834643428</v>
       </c>
     </row>
     <row r="8">
@@ -13167,28 +13167,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>850.7583249856742</v>
+        <v>926.6460303628821</v>
       </c>
       <c r="AB8" t="n">
-        <v>1164.045073053765</v>
+        <v>1267.877979480138</v>
       </c>
       <c r="AC8" t="n">
-        <v>1052.950245029034</v>
+        <v>1146.873484596473</v>
       </c>
       <c r="AD8" t="n">
-        <v>850758.3249856742</v>
+        <v>926646.0303628822</v>
       </c>
       <c r="AE8" t="n">
-        <v>1164045.073053766</v>
+        <v>1267877.979480138</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.538232962911062e-06</v>
+        <v>2.802326393018532e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.54644097222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1052950.245029035</v>
+        <v>1146873.484596473</v>
       </c>
     </row>
     <row r="9">
@@ -13273,28 +13273,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>825.2247353724206</v>
+        <v>891.6158994792071</v>
       </c>
       <c r="AB9" t="n">
-        <v>1129.10888928244</v>
+        <v>1219.94820898479</v>
       </c>
       <c r="AC9" t="n">
-        <v>1021.348321603602</v>
+        <v>1103.518064127345</v>
       </c>
       <c r="AD9" t="n">
-        <v>825224.7353724206</v>
+        <v>891615.8994792071</v>
       </c>
       <c r="AE9" t="n">
-        <v>1129108.88928244</v>
+        <v>1219948.208984789</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.550811850334827e-06</v>
+        <v>2.825242394087523e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.42708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1021348.321603602</v>
+        <v>1103518.064127346</v>
       </c>
     </row>
     <row r="10">
@@ -13379,28 +13379,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>822.4026242315227</v>
+        <v>888.7937883383095</v>
       </c>
       <c r="AB10" t="n">
-        <v>1125.247552316707</v>
+        <v>1216.086872019056</v>
       </c>
       <c r="AC10" t="n">
-        <v>1017.855505218459</v>
+        <v>1100.025247742202</v>
       </c>
       <c r="AD10" t="n">
-        <v>822402.6242315228</v>
+        <v>888793.7883383095</v>
       </c>
       <c r="AE10" t="n">
-        <v>1125247.552316707</v>
+        <v>1216086.872019056</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.551842906681037e-06</v>
+        <v>2.827120754830883e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.41840277777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1017855.505218459</v>
+        <v>1100025.247742202</v>
       </c>
     </row>
   </sheetData>
@@ -13676,28 +13676,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>934.5603066655074</v>
+        <v>1013.784156369113</v>
       </c>
       <c r="AB2" t="n">
-        <v>1278.706641470618</v>
+        <v>1387.104207744668</v>
       </c>
       <c r="AC2" t="n">
-        <v>1156.668674284705</v>
+        <v>1254.720928970499</v>
       </c>
       <c r="AD2" t="n">
-        <v>934560.3066655074</v>
+        <v>1013784.156369113</v>
       </c>
       <c r="AE2" t="n">
-        <v>1278706.641470618</v>
+        <v>1387104.207744668</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.371193692826337e-06</v>
+        <v>2.687097838690527e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.71484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1156668.674284704</v>
+        <v>1254720.928970499</v>
       </c>
     </row>
     <row r="3">
@@ -13782,28 +13782,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>721.4836903675764</v>
+        <v>791.7342979035227</v>
       </c>
       <c r="AB3" t="n">
-        <v>987.1658147749163</v>
+        <v>1083.285795243669</v>
       </c>
       <c r="AC3" t="n">
-        <v>892.9520949087205</v>
+        <v>979.8985193467756</v>
       </c>
       <c r="AD3" t="n">
-        <v>721483.6903675764</v>
+        <v>791734.2979035227</v>
       </c>
       <c r="AE3" t="n">
-        <v>987165.8147749163</v>
+        <v>1083285.795243669</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.575249701154697e-06</v>
+        <v>3.086981868072798e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.42100694444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>892952.0949087205</v>
+        <v>979898.5193467756</v>
       </c>
     </row>
     <row r="4">
@@ -13888,28 +13888,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>645.3970921436096</v>
+        <v>715.7329510255765</v>
       </c>
       <c r="AB4" t="n">
-        <v>883.0607743810757</v>
+        <v>979.2973995024779</v>
       </c>
       <c r="AC4" t="n">
-        <v>798.7826934577262</v>
+        <v>885.8346301464935</v>
       </c>
       <c r="AD4" t="n">
-        <v>645397.0921436097</v>
+        <v>715732.9510255766</v>
       </c>
       <c r="AE4" t="n">
-        <v>883060.7743810758</v>
+        <v>979297.399502478</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.64319374781148e-06</v>
+        <v>3.220130307916484e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.78298611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>798782.6934577262</v>
+        <v>885834.6301464936</v>
       </c>
     </row>
     <row r="5">
@@ -13994,28 +13994,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>648.3251747914316</v>
+        <v>718.6610336733984</v>
       </c>
       <c r="AB5" t="n">
-        <v>887.0671062377152</v>
+        <v>983.3037313591175</v>
       </c>
       <c r="AC5" t="n">
-        <v>802.4066666248897</v>
+        <v>889.4586033136572</v>
       </c>
       <c r="AD5" t="n">
-        <v>648325.1747914315</v>
+        <v>718661.0336733984</v>
       </c>
       <c r="AE5" t="n">
-        <v>887067.1062377151</v>
+        <v>983303.7313591174</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.64408922124353e-06</v>
+        <v>3.221885147321343e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.77430555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>802406.6666248897</v>
+        <v>889458.6033136572</v>
       </c>
     </row>
   </sheetData>
@@ -14291,28 +14291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3414.567430876155</v>
+        <v>3567.117687371825</v>
       </c>
       <c r="AB2" t="n">
-        <v>4671.961799008428</v>
+        <v>4880.687789988149</v>
       </c>
       <c r="AC2" t="n">
-        <v>4226.076322050455</v>
+        <v>4414.881797399832</v>
       </c>
       <c r="AD2" t="n">
-        <v>3414567.430876154</v>
+        <v>3567117.687371824</v>
       </c>
       <c r="AE2" t="n">
-        <v>4671961.799008428</v>
+        <v>4880687.789988149</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.242998591603007e-07</v>
+        <v>1.246144296127592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.68055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>4226076.322050455</v>
+        <v>4414881.797399832</v>
       </c>
     </row>
     <row r="3">
@@ -14397,28 +14397,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1807.970154169163</v>
+        <v>1909.556626868731</v>
       </c>
       <c r="AB3" t="n">
-        <v>2473.744526948129</v>
+        <v>2612.739620574554</v>
       </c>
       <c r="AC3" t="n">
-        <v>2237.653821218449</v>
+        <v>2363.383418190007</v>
       </c>
       <c r="AD3" t="n">
-        <v>1807970.154169163</v>
+        <v>1909556.626868731</v>
       </c>
       <c r="AE3" t="n">
-        <v>2473744.526948129</v>
+        <v>2612739.620574553</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.072139913103545e-06</v>
+        <v>1.844596572079444e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2237653.821218449</v>
+        <v>2363383.418190007</v>
       </c>
     </row>
     <row r="4">
@@ -14503,28 +14503,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1504.332937866303</v>
+        <v>1595.743704075856</v>
       </c>
       <c r="AB4" t="n">
-        <v>2058.294692073983</v>
+        <v>2183.366935160281</v>
       </c>
       <c r="AC4" t="n">
-        <v>1861.853935497186</v>
+        <v>1974.989459243322</v>
       </c>
       <c r="AD4" t="n">
-        <v>1504332.937866303</v>
+        <v>1595743.704075856</v>
       </c>
       <c r="AE4" t="n">
-        <v>2058294.692073983</v>
+        <v>2183366.935160281</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.204709663987253e-06</v>
+        <v>2.072680337129889e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.24175347222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1861853.935497186</v>
+        <v>1974989.459243322</v>
       </c>
     </row>
     <row r="5">
@@ -14609,28 +14609,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1374.940430272051</v>
+        <v>1456.260830846159</v>
       </c>
       <c r="AB5" t="n">
-        <v>1881.25415478897</v>
+        <v>1992.520314457338</v>
       </c>
       <c r="AC5" t="n">
-        <v>1701.7098986127</v>
+        <v>1802.356972165354</v>
       </c>
       <c r="AD5" t="n">
-        <v>1374940.430272051</v>
+        <v>1456260.830846159</v>
       </c>
       <c r="AE5" t="n">
-        <v>1881254.15478897</v>
+        <v>1992520.314457338</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.273531072568759e-06</v>
+        <v>2.19108627725355e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.31076388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1701709.8986127</v>
+        <v>1802356.972165354</v>
       </c>
     </row>
     <row r="6">
@@ -14715,28 +14715,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1294.665419787158</v>
+        <v>1376.071071707287</v>
       </c>
       <c r="AB6" t="n">
-        <v>1771.418343960024</v>
+        <v>1882.80114828104</v>
       </c>
       <c r="AC6" t="n">
-        <v>1602.356663413739</v>
+        <v>1703.109249217106</v>
       </c>
       <c r="AD6" t="n">
-        <v>1294665.419787158</v>
+        <v>1376071.071707287</v>
       </c>
       <c r="AE6" t="n">
-        <v>1771418.343960023</v>
+        <v>1882801.14828104</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.316987149753743e-06</v>
+        <v>2.265851641392828e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.77256944444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1602356.663413739</v>
+        <v>1703109.249217106</v>
       </c>
     </row>
     <row r="7">
@@ -14821,28 +14821,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1248.71600326871</v>
+        <v>1329.951062988246</v>
       </c>
       <c r="AB7" t="n">
-        <v>1708.548325134294</v>
+        <v>1819.697717680464</v>
       </c>
       <c r="AC7" t="n">
-        <v>1545.486870946111</v>
+        <v>1646.028321466827</v>
       </c>
       <c r="AD7" t="n">
-        <v>1248716.00326871</v>
+        <v>1329951.062988246</v>
       </c>
       <c r="AE7" t="n">
-        <v>1708548.325134294</v>
+        <v>1819697.717680464</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.34627692864935e-06</v>
+        <v>2.316244155548378e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.4296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1545486.870946111</v>
+        <v>1646028.321466827</v>
       </c>
     </row>
     <row r="8">
@@ -14927,28 +14927,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1214.496806676697</v>
+        <v>1295.731866396233</v>
       </c>
       <c r="AB8" t="n">
-        <v>1661.728110712694</v>
+        <v>1772.877503258864</v>
       </c>
       <c r="AC8" t="n">
-        <v>1503.135112076325</v>
+        <v>1603.676562597041</v>
       </c>
       <c r="AD8" t="n">
-        <v>1214496.806676697</v>
+        <v>1295731.866396233</v>
       </c>
       <c r="AE8" t="n">
-        <v>1661728.110712694</v>
+        <v>1772877.503258864</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.367909249010157e-06</v>
+        <v>2.353462156199209e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.18446180555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1503135.112076325</v>
+        <v>1603676.562597041</v>
       </c>
     </row>
     <row r="9">
@@ -15033,28 +15033,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1187.443234064697</v>
+        <v>1258.67326900336</v>
       </c>
       <c r="AB9" t="n">
-        <v>1624.712219145566</v>
+        <v>1722.172295396005</v>
       </c>
       <c r="AC9" t="n">
-        <v>1469.651965248234</v>
+        <v>1557.810588607407</v>
       </c>
       <c r="AD9" t="n">
-        <v>1187443.234064697</v>
+        <v>1258673.269003361</v>
       </c>
       <c r="AE9" t="n">
-        <v>1624712.219145566</v>
+        <v>1722172.295396005</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.38408563016492e-06</v>
+        <v>2.381293315977927e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.00868055555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1469651.965248234</v>
+        <v>1557810.588607407</v>
       </c>
     </row>
     <row r="10">
@@ -15139,28 +15139,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1155.573164868809</v>
+        <v>1236.893475934366</v>
       </c>
       <c r="AB10" t="n">
-        <v>1581.106184463531</v>
+        <v>1692.37222166235</v>
       </c>
       <c r="AC10" t="n">
-        <v>1430.207629314797</v>
+        <v>1530.854592086226</v>
       </c>
       <c r="AD10" t="n">
-        <v>1155573.164868809</v>
+        <v>1236893.475934366</v>
       </c>
       <c r="AE10" t="n">
-        <v>1581106.184463531</v>
+        <v>1692372.22166235</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.396529000283968e-06</v>
+        <v>2.402701900423095e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.87413194444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>1430207.629314797</v>
+        <v>1530854.592086226</v>
       </c>
     </row>
     <row r="11">
@@ -15245,28 +15245,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1136.268270040365</v>
+        <v>1217.588581105922</v>
       </c>
       <c r="AB11" t="n">
-        <v>1554.692375687401</v>
+        <v>1665.95841288622</v>
       </c>
       <c r="AC11" t="n">
-        <v>1406.314717376248</v>
+        <v>1506.961680147677</v>
       </c>
       <c r="AD11" t="n">
-        <v>1136268.270040364</v>
+        <v>1217588.581105922</v>
       </c>
       <c r="AE11" t="n">
-        <v>1554692.375687401</v>
+        <v>1665958.41288622</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.407153724001002e-06</v>
+        <v>2.420981537910893e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.76128472222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1406314.717376248</v>
+        <v>1506961.680147676</v>
       </c>
     </row>
     <row r="12">
@@ -15351,28 +15351,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1118.315546278622</v>
+        <v>1199.635857344179</v>
       </c>
       <c r="AB12" t="n">
-        <v>1530.128667018311</v>
+        <v>1641.394704217131</v>
       </c>
       <c r="AC12" t="n">
-        <v>1384.095334587155</v>
+        <v>1484.742297358583</v>
       </c>
       <c r="AD12" t="n">
-        <v>1118315.546278622</v>
+        <v>1199635.857344179</v>
       </c>
       <c r="AE12" t="n">
-        <v>1530128.667018311</v>
+        <v>1641394.704217131</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.416151237779391e-06</v>
+        <v>2.436461591278937e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.66796875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1384095.334587155</v>
+        <v>1484742.297358583</v>
       </c>
     </row>
     <row r="13">
@@ -15457,28 +15457,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1104.078850946249</v>
+        <v>1185.399162011806</v>
       </c>
       <c r="AB13" t="n">
-        <v>1510.649392385887</v>
+        <v>1621.915429584706</v>
       </c>
       <c r="AC13" t="n">
-        <v>1366.475134586315</v>
+        <v>1467.122097357743</v>
       </c>
       <c r="AD13" t="n">
-        <v>1104078.850946249</v>
+        <v>1185399.162011806</v>
       </c>
       <c r="AE13" t="n">
-        <v>1510649.392385887</v>
+        <v>1621915.429584706</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.42189433168049e-06</v>
+        <v>2.446342476407476e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.609375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1366475.134586315</v>
+        <v>1467122.097357743</v>
       </c>
     </row>
     <row r="14">
@@ -15563,28 +15563,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1089.598926030547</v>
+        <v>1170.919237096105</v>
       </c>
       <c r="AB14" t="n">
-        <v>1490.837320307022</v>
+        <v>1602.103357505841</v>
       </c>
       <c r="AC14" t="n">
-        <v>1348.55389886024</v>
+        <v>1449.200861631668</v>
       </c>
       <c r="AD14" t="n">
-        <v>1089598.926030547</v>
+        <v>1170919.237096105</v>
       </c>
       <c r="AE14" t="n">
-        <v>1490837.320307022</v>
+        <v>1602103.357505841</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.427733143813274e-06</v>
+        <v>2.456388042954825e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.54861111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>1348553.89886024</v>
+        <v>1449200.861631668</v>
       </c>
     </row>
     <row r="15">
@@ -15669,28 +15669,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1075.888500260248</v>
+        <v>1147.03319434434</v>
       </c>
       <c r="AB15" t="n">
-        <v>1472.078110906802</v>
+        <v>1569.421420035043</v>
       </c>
       <c r="AC15" t="n">
-        <v>1331.585042076461</v>
+        <v>1419.638042403695</v>
       </c>
       <c r="AD15" t="n">
-        <v>1075888.500260248</v>
+        <v>1147033.19434434</v>
       </c>
       <c r="AE15" t="n">
-        <v>1472078.110906802</v>
+        <v>1569421.420035043</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.434146265336168e-06</v>
+        <v>2.467421698015027e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.48350694444444</v>
       </c>
       <c r="AH15" t="n">
-        <v>1331585.042076461</v>
+        <v>1419638.042403695</v>
       </c>
     </row>
     <row r="16">
@@ -15775,28 +15775,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1062.590204761166</v>
+        <v>1133.734898845258</v>
       </c>
       <c r="AB16" t="n">
-        <v>1453.882796325566</v>
+        <v>1551.226105453807</v>
       </c>
       <c r="AC16" t="n">
-        <v>1315.126262781574</v>
+        <v>1403.179263108808</v>
       </c>
       <c r="AD16" t="n">
-        <v>1062590.204761166</v>
+        <v>1133734.898845258</v>
       </c>
       <c r="AE16" t="n">
-        <v>1453882.796325566</v>
+        <v>1551226.105453807</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.438740740457048e-06</v>
+        <v>2.475326406117858e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.43793402777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>1315126.262781574</v>
+        <v>1403179.263108808</v>
       </c>
     </row>
     <row r="17">
@@ -15881,28 +15881,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1052.322536773164</v>
+        <v>1123.467230857256</v>
       </c>
       <c r="AB17" t="n">
-        <v>1439.83412000684</v>
+        <v>1537.177429135081</v>
       </c>
       <c r="AC17" t="n">
-        <v>1302.418372413266</v>
+        <v>1390.4713727405</v>
       </c>
       <c r="AD17" t="n">
-        <v>1052322.536773164</v>
+        <v>1123467.230857256</v>
       </c>
       <c r="AE17" t="n">
-        <v>1439834.12000684</v>
+        <v>1537177.42913508</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.441325132712542e-06</v>
+        <v>2.479772804425701e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.41189236111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>1302418.372413266</v>
+        <v>1390471.3727405</v>
       </c>
     </row>
     <row r="18">
@@ -15987,28 +15987,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1038.461301036041</v>
+        <v>1109.605995120133</v>
       </c>
       <c r="AB18" t="n">
-        <v>1420.868565756747</v>
+        <v>1518.211874884987</v>
       </c>
       <c r="AC18" t="n">
-        <v>1285.262864042479</v>
+        <v>1373.315864369713</v>
       </c>
       <c r="AD18" t="n">
-        <v>1038461.301036041</v>
+        <v>1109605.995120134</v>
       </c>
       <c r="AE18" t="n">
-        <v>1420868.565756747</v>
+        <v>1518211.874884987</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.446206762528476e-06</v>
+        <v>2.488171556784958e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.36414930555556</v>
       </c>
       <c r="AH18" t="n">
-        <v>1285262.864042479</v>
+        <v>1373315.864369713</v>
       </c>
     </row>
     <row r="19">
@@ -16093,28 +16093,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1027.1257717154</v>
+        <v>1098.270465799492</v>
       </c>
       <c r="AB19" t="n">
-        <v>1405.358794451986</v>
+        <v>1502.702103580227</v>
       </c>
       <c r="AC19" t="n">
-        <v>1271.233323542944</v>
+        <v>1359.286323870178</v>
       </c>
       <c r="AD19" t="n">
-        <v>1027125.7717154</v>
+        <v>1098270.465799492</v>
       </c>
       <c r="AE19" t="n">
-        <v>1405358.794451986</v>
+        <v>1502702.103580227</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.449365464174081e-06</v>
+        <v>2.493606043605655e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.33159722222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>1271233.323542944</v>
+        <v>1359286.323870178</v>
       </c>
     </row>
     <row r="20">
@@ -16199,28 +16199,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1023.071191852738</v>
+        <v>1094.21588593683</v>
       </c>
       <c r="AB20" t="n">
-        <v>1399.811139408453</v>
+        <v>1497.154448536694</v>
       </c>
       <c r="AC20" t="n">
-        <v>1266.215128910583</v>
+        <v>1354.268129237817</v>
       </c>
       <c r="AD20" t="n">
-        <v>1023071.191852738</v>
+        <v>1094215.88593683</v>
       </c>
       <c r="AE20" t="n">
-        <v>1399811.139408453</v>
+        <v>1497154.448536694</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.450609801185986e-06</v>
+        <v>2.495746902050172e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.31857638888889</v>
       </c>
       <c r="AH20" t="n">
-        <v>1266215.128910583</v>
+        <v>1354268.129237817</v>
       </c>
     </row>
     <row r="21">
@@ -16305,28 +16305,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1025.871383728671</v>
+        <v>1097.016077812763</v>
       </c>
       <c r="AB21" t="n">
-        <v>1403.642485468851</v>
+        <v>1500.985794597092</v>
       </c>
       <c r="AC21" t="n">
-        <v>1269.680816680305</v>
+        <v>1357.733817007539</v>
       </c>
       <c r="AD21" t="n">
-        <v>1025871.383728671</v>
+        <v>1097016.077812763</v>
       </c>
       <c r="AE21" t="n">
-        <v>1403642.485468851</v>
+        <v>1500985.794597092</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.450705519417671e-06</v>
+        <v>2.495911583468981e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.31857638888889</v>
       </c>
       <c r="AH21" t="n">
-        <v>1269680.816680305</v>
+        <v>1357733.817007539</v>
       </c>
     </row>
   </sheetData>
@@ -16602,28 +16602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>776.1697805740445</v>
+        <v>853.6417190657644</v>
       </c>
       <c r="AB2" t="n">
-        <v>1061.989735975435</v>
+        <v>1167.990260040514</v>
       </c>
       <c r="AC2" t="n">
-        <v>960.634926085894</v>
+        <v>1056.518908906872</v>
       </c>
       <c r="AD2" t="n">
-        <v>776169.7805740444</v>
+        <v>853641.7190657643</v>
       </c>
       <c r="AE2" t="n">
-        <v>1061989.735975435</v>
+        <v>1167990.260040514</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.467861670571113e-06</v>
+        <v>2.942564129332792e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.93576388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>960634.926085894</v>
+        <v>1056518.908906872</v>
       </c>
     </row>
     <row r="3">
@@ -16708,28 +16708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>615.1066933218093</v>
+        <v>675.4291112108093</v>
       </c>
       <c r="AB3" t="n">
-        <v>841.6161143950052</v>
+        <v>924.1519077879914</v>
       </c>
       <c r="AC3" t="n">
-        <v>761.2934536527804</v>
+        <v>835.9521467640537</v>
       </c>
       <c r="AD3" t="n">
-        <v>615106.6933218093</v>
+        <v>675429.1112108093</v>
       </c>
       <c r="AE3" t="n">
-        <v>841616.1143950052</v>
+        <v>924151.9077879913</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.650914811633438e-06</v>
+        <v>3.309523508033728e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.05859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>761293.4536527804</v>
+        <v>835952.1467640537</v>
       </c>
     </row>
     <row r="4">
@@ -16814,28 +16814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>602.0878098509146</v>
+        <v>670.9422728597132</v>
       </c>
       <c r="AB4" t="n">
-        <v>823.8031036775241</v>
+        <v>918.012817610684</v>
       </c>
       <c r="AC4" t="n">
-        <v>745.1804916774581</v>
+        <v>830.3989627370012</v>
       </c>
       <c r="AD4" t="n">
-        <v>602087.8098509146</v>
+        <v>670942.2728597132</v>
       </c>
       <c r="AE4" t="n">
-        <v>823803.103677524</v>
+        <v>918012.817610684</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.659620718217128e-06</v>
+        <v>3.326975894004486e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.97829861111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>745180.4916774582</v>
+        <v>830398.9627370011</v>
       </c>
     </row>
   </sheetData>
@@ -17111,28 +17111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2363.343162515937</v>
+        <v>2481.028932101696</v>
       </c>
       <c r="AB2" t="n">
-        <v>3233.630378296283</v>
+        <v>3394.653240173254</v>
       </c>
       <c r="AC2" t="n">
-        <v>2925.017233420303</v>
+        <v>3070.672299356736</v>
       </c>
       <c r="AD2" t="n">
-        <v>2363343.162515937</v>
+        <v>2481028.932101696</v>
       </c>
       <c r="AE2" t="n">
-        <v>3233630.378296283</v>
+        <v>3394653.240173254</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.861664746894279e-07</v>
+        <v>1.569466674958481e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.37065972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2925017.233420304</v>
+        <v>3070672.299356736</v>
       </c>
     </row>
     <row r="3">
@@ -17217,28 +17217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1427.14282550896</v>
+        <v>1525.114661242967</v>
       </c>
       <c r="AB3" t="n">
-        <v>1952.67977495925</v>
+        <v>2086.729162822863</v>
       </c>
       <c r="AC3" t="n">
-        <v>1766.318757840415</v>
+        <v>1887.574660265823</v>
       </c>
       <c r="AD3" t="n">
-        <v>1427142.82550896</v>
+        <v>1525114.661242967</v>
       </c>
       <c r="AE3" t="n">
-        <v>1952679.77495925</v>
+        <v>2086729.162822863</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.202220907436606e-06</v>
+        <v>2.129222560378822e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.96440972222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1766318.757840415</v>
+        <v>1887574.660265823</v>
       </c>
     </row>
     <row r="4">
@@ -17323,28 +17323,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1231.722191162358</v>
+        <v>1310.150953770857</v>
       </c>
       <c r="AB4" t="n">
-        <v>1685.296641696306</v>
+        <v>1792.606334730063</v>
       </c>
       <c r="AC4" t="n">
-        <v>1524.454295541502</v>
+        <v>1621.522502082218</v>
       </c>
       <c r="AD4" t="n">
-        <v>1231722.191162358</v>
+        <v>1310150.953770857</v>
       </c>
       <c r="AE4" t="n">
-        <v>1685296.641696306</v>
+        <v>1792606.334730063</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.317457378822385e-06</v>
+        <v>2.333314914067977e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.39322916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1524454.295541502</v>
+        <v>1621522.502082218</v>
       </c>
     </row>
     <row r="5">
@@ -17429,28 +17429,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1138.262749002354</v>
+        <v>1216.776762956873</v>
       </c>
       <c r="AB5" t="n">
-        <v>1557.421309793396</v>
+        <v>1664.847647479803</v>
       </c>
       <c r="AC5" t="n">
-        <v>1408.783205841251</v>
+        <v>1505.956924632679</v>
       </c>
       <c r="AD5" t="n">
-        <v>1138262.749002354</v>
+        <v>1216776.762956873</v>
       </c>
       <c r="AE5" t="n">
-        <v>1557421.309793396</v>
+        <v>1664847.647479803</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.376269774840515e-06</v>
+        <v>2.437476037582908e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.69227430555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1408783.205841251</v>
+        <v>1505956.924632679</v>
       </c>
     </row>
     <row r="6">
@@ -17535,28 +17535,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1085.932555481017</v>
+        <v>1164.275977234944</v>
       </c>
       <c r="AB6" t="n">
-        <v>1485.820830372301</v>
+        <v>1593.013756283861</v>
       </c>
       <c r="AC6" t="n">
-        <v>1344.0161756842</v>
+        <v>1440.978759192978</v>
       </c>
       <c r="AD6" t="n">
-        <v>1085932.555481017</v>
+        <v>1164275.977234944</v>
       </c>
       <c r="AE6" t="n">
-        <v>1485820.830372301</v>
+        <v>1593013.756283861</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.413786311725177e-06</v>
+        <v>2.503920612143194e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.27560763888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1344016.1756842</v>
+        <v>1440978.759192978</v>
       </c>
     </row>
     <row r="7">
@@ -17641,28 +17641,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1049.999895959174</v>
+        <v>1118.69974767793</v>
       </c>
       <c r="AB7" t="n">
-        <v>1436.656180377458</v>
+        <v>1530.654348322613</v>
       </c>
       <c r="AC7" t="n">
-        <v>1299.543730881846</v>
+        <v>1384.570845605573</v>
       </c>
       <c r="AD7" t="n">
-        <v>1049999.895959174</v>
+        <v>1118699.74767793</v>
       </c>
       <c r="AE7" t="n">
-        <v>1436656.180377458</v>
+        <v>1530654.348322613</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.438465625113496e-06</v>
+        <v>2.547629509997175e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.01302083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1299543.730881846</v>
+        <v>1384570.845605573</v>
       </c>
     </row>
     <row r="8">
@@ -17747,28 +17747,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1010.74657213006</v>
+        <v>1089.175245230008</v>
       </c>
       <c r="AB8" t="n">
-        <v>1382.948050980037</v>
+        <v>1490.257621544246</v>
       </c>
       <c r="AC8" t="n">
-        <v>1250.961429974281</v>
+        <v>1348.02952573377</v>
       </c>
       <c r="AD8" t="n">
-        <v>1010746.57213006</v>
+        <v>1089175.245230008</v>
       </c>
       <c r="AE8" t="n">
-        <v>1382948.050980037</v>
+        <v>1490257.621544246</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.456875596794298e-06</v>
+        <v>2.580234937831799e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.82421875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1250961.429974281</v>
+        <v>1348029.525733771</v>
       </c>
     </row>
     <row r="9">
@@ -17853,28 +17853,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>987.4874694148117</v>
+        <v>1065.91614251476</v>
       </c>
       <c r="AB9" t="n">
-        <v>1351.123920525842</v>
+        <v>1458.433491090051</v>
       </c>
       <c r="AC9" t="n">
-        <v>1222.174549865188</v>
+        <v>1319.242645624677</v>
       </c>
       <c r="AD9" t="n">
-        <v>987487.4694148117</v>
+        <v>1065916.14251476</v>
       </c>
       <c r="AE9" t="n">
-        <v>1351123.920525842</v>
+        <v>1458433.491090051</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.470608440534572e-06</v>
+        <v>2.604556824540869e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.68532986111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1222174.549865188</v>
+        <v>1319242.645624677</v>
       </c>
     </row>
     <row r="10">
@@ -17959,28 +17959,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>965.9113062167276</v>
+        <v>1044.339979316676</v>
       </c>
       <c r="AB10" t="n">
-        <v>1321.602462165083</v>
+        <v>1428.912032729292</v>
       </c>
       <c r="AC10" t="n">
-        <v>1195.470578056752</v>
+        <v>1292.538673816242</v>
       </c>
       <c r="AD10" t="n">
-        <v>965911.3062167276</v>
+        <v>1044339.979316676</v>
       </c>
       <c r="AE10" t="n">
-        <v>1321602.462165083</v>
+        <v>1428912.032729292</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.481952963624364e-06</v>
+        <v>2.624648817909231e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.57248263888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1195470.578056752</v>
+        <v>1292538.673816242</v>
       </c>
     </row>
     <row r="11">
@@ -18065,28 +18065,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>946.3909319111468</v>
+        <v>1015.005442775331</v>
       </c>
       <c r="AB11" t="n">
-        <v>1294.893824862052</v>
+        <v>1388.775225685009</v>
       </c>
       <c r="AC11" t="n">
-        <v>1171.310975612115</v>
+        <v>1256.232467303902</v>
       </c>
       <c r="AD11" t="n">
-        <v>946390.9319111469</v>
+        <v>1015005.442775331</v>
       </c>
       <c r="AE11" t="n">
-        <v>1294893.824862052</v>
+        <v>1388775.225685009</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.4907101393428e-06</v>
+        <v>2.64015842682516e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.48784722222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1171310.975612115</v>
+        <v>1256232.467303902</v>
       </c>
     </row>
     <row r="12">
@@ -18171,28 +18171,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>928.6476539328617</v>
+        <v>997.2621647970458</v>
       </c>
       <c r="AB12" t="n">
-        <v>1270.616689153983</v>
+        <v>1364.49808997694</v>
       </c>
       <c r="AC12" t="n">
-        <v>1149.35081566285</v>
+        <v>1234.272307354638</v>
       </c>
       <c r="AD12" t="n">
-        <v>928647.6539328616</v>
+        <v>997262.1647970458</v>
       </c>
       <c r="AE12" t="n">
-        <v>1270616.689153983</v>
+        <v>1364498.08997694</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.497875101294247e-06</v>
+        <v>2.652848106847284e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.41840277777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1149350.81566285</v>
+        <v>1234272.307354638</v>
       </c>
     </row>
     <row r="13">
@@ -18277,28 +18277,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>912.9671177835502</v>
+        <v>981.5816286477342</v>
       </c>
       <c r="AB13" t="n">
-        <v>1249.161887818064</v>
+        <v>1343.043288641021</v>
       </c>
       <c r="AC13" t="n">
-        <v>1129.943630454428</v>
+        <v>1214.865122146215</v>
       </c>
       <c r="AD13" t="n">
-        <v>912967.1177835502</v>
+        <v>981581.6286477342</v>
       </c>
       <c r="AE13" t="n">
-        <v>1249161.887818064</v>
+        <v>1343043.288641021</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.503447849478706e-06</v>
+        <v>2.662717857975602e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.36414930555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>1129943.630454428</v>
+        <v>1214865.122146215</v>
       </c>
     </row>
     <row r="14">
@@ -18383,28 +18383,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>910.3564369866256</v>
+        <v>978.9709478508096</v>
       </c>
       <c r="AB14" t="n">
-        <v>1245.589839176603</v>
+        <v>1339.47123999956</v>
       </c>
       <c r="AC14" t="n">
-        <v>1126.712493121907</v>
+        <v>1211.633984813694</v>
       </c>
       <c r="AD14" t="n">
-        <v>910356.4369866255</v>
+        <v>978970.9478508095</v>
       </c>
       <c r="AE14" t="n">
-        <v>1245589.839176603</v>
+        <v>1339471.23999956</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.5042439563622e-06</v>
+        <v>2.664127822422504e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.35763888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>1126712.493121907</v>
+        <v>1211633.984813694</v>
       </c>
     </row>
     <row r="15">
@@ -18489,28 +18489,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>914.6569635659598</v>
+        <v>983.2714744301441</v>
       </c>
       <c r="AB15" t="n">
-        <v>1251.474009368291</v>
+        <v>1345.355410191248</v>
       </c>
       <c r="AC15" t="n">
-        <v>1132.035086368985</v>
+        <v>1216.956578060772</v>
       </c>
       <c r="AD15" t="n">
-        <v>914656.9635659598</v>
+        <v>983271.4744301441</v>
       </c>
       <c r="AE15" t="n">
-        <v>1251474.009368291</v>
+        <v>1345355.410191248</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.504144443001764e-06</v>
+        <v>2.663951576866642e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.35763888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>1132035.086368985</v>
+        <v>1216956.578060772</v>
       </c>
     </row>
   </sheetData>
@@ -18786,28 +18786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2845.711685491242</v>
+        <v>2985.486436149637</v>
       </c>
       <c r="AB2" t="n">
-        <v>3893.628272028458</v>
+        <v>4084.874252306079</v>
       </c>
       <c r="AC2" t="n">
-        <v>3522.025854487516</v>
+        <v>3695.019586822854</v>
       </c>
       <c r="AD2" t="n">
-        <v>2845711.685491242</v>
+        <v>2985486.436149637</v>
       </c>
       <c r="AE2" t="n">
-        <v>3893628.272028458</v>
+        <v>4084874.252306079</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.014768568212999e-07</v>
+        <v>1.397705653974898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.40190972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>3522025.854487516</v>
+        <v>3695019.586822854</v>
       </c>
     </row>
     <row r="3">
@@ -18892,28 +18892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1611.007802254487</v>
+        <v>1710.944378338172</v>
       </c>
       <c r="AB3" t="n">
-        <v>2204.251947692768</v>
+        <v>2340.989579981039</v>
       </c>
       <c r="AC3" t="n">
-        <v>1993.881235492009</v>
+        <v>2117.568820067159</v>
       </c>
       <c r="AD3" t="n">
-        <v>1611007.802254487</v>
+        <v>1710944.378338172</v>
       </c>
       <c r="AE3" t="n">
-        <v>2204251.947692768</v>
+        <v>2340989.579981039</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.135230540629002e-06</v>
+        <v>1.979742935429408e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.63932291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1993881.235492009</v>
+        <v>2117568.820067159</v>
       </c>
     </row>
     <row r="4">
@@ -18998,28 +18998,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1362.261051105392</v>
+        <v>1452.195435495251</v>
       </c>
       <c r="AB4" t="n">
-        <v>1863.905668838418</v>
+        <v>1986.957861185642</v>
       </c>
       <c r="AC4" t="n">
-        <v>1686.017127812516</v>
+        <v>1797.325391626957</v>
       </c>
       <c r="AD4" t="n">
-        <v>1362261.051105392</v>
+        <v>1452195.435495251</v>
       </c>
       <c r="AE4" t="n">
-        <v>1863905.668838418</v>
+        <v>1986957.861185642</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.258474670437046e-06</v>
+        <v>2.19466993623528e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.81423611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1686017.127812515</v>
+        <v>1797325.391626957</v>
       </c>
     </row>
     <row r="5">
@@ -19104,28 +19104,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1248.740840873343</v>
+        <v>1338.58988440863</v>
       </c>
       <c r="AB5" t="n">
-        <v>1708.58230904071</v>
+        <v>1831.517734265736</v>
       </c>
       <c r="AC5" t="n">
-        <v>1545.517611476196</v>
+        <v>1656.720252258699</v>
       </c>
       <c r="AD5" t="n">
-        <v>1248740.840873343</v>
+        <v>1338589.88440863</v>
       </c>
       <c r="AE5" t="n">
-        <v>1708582.30904071</v>
+        <v>1831517.734265736</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.324581885634715e-06</v>
+        <v>2.309955147110583e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.97439236111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1545517.611476196</v>
+        <v>1656720.252258698</v>
       </c>
     </row>
     <row r="6">
@@ -19210,28 +19210,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1191.228038615585</v>
+        <v>1271.24557216619</v>
       </c>
       <c r="AB6" t="n">
-        <v>1629.890755705884</v>
+        <v>1739.374275234258</v>
       </c>
       <c r="AC6" t="n">
-        <v>1474.336269547357</v>
+        <v>1573.370835633028</v>
       </c>
       <c r="AD6" t="n">
-        <v>1191228.038615585</v>
+        <v>1271245.57216619</v>
       </c>
       <c r="AE6" t="n">
-        <v>1629890.755705884</v>
+        <v>1739374.275234258</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.363388186001489e-06</v>
+        <v>2.377629946414963e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.52083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1474336.269547357</v>
+        <v>1573370.835633028</v>
       </c>
     </row>
     <row r="7">
@@ -19316,28 +19316,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1149.302833283234</v>
+        <v>1229.149774633247</v>
       </c>
       <c r="AB7" t="n">
-        <v>1572.526840160641</v>
+        <v>1681.776947914168</v>
       </c>
       <c r="AC7" t="n">
-        <v>1422.44708559099</v>
+        <v>1521.27051639401</v>
       </c>
       <c r="AD7" t="n">
-        <v>1149302.833283234</v>
+        <v>1229149.774633247</v>
       </c>
       <c r="AE7" t="n">
-        <v>1572526.840160641</v>
+        <v>1681776.947914168</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.391274120435904e-06</v>
+        <v>2.426260581090976e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.20833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1422447.08559099</v>
+        <v>1521270.516394011</v>
       </c>
     </row>
     <row r="8">
@@ -19422,28 +19422,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1108.879569721932</v>
+        <v>1188.811762417965</v>
       </c>
       <c r="AB8" t="n">
-        <v>1517.217947607541</v>
+        <v>1626.584700013718</v>
       </c>
       <c r="AC8" t="n">
-        <v>1372.41679611664</v>
+        <v>1471.345739170372</v>
       </c>
       <c r="AD8" t="n">
-        <v>1108879.569721932</v>
+        <v>1188811.762417965</v>
       </c>
       <c r="AE8" t="n">
-        <v>1517217.947607541</v>
+        <v>1626584.700013718</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.410677270619291e-06</v>
+        <v>2.460097980743166e-06</v>
       </c>
       <c r="AG8" t="n">
         <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>1372416.79611664</v>
+        <v>1471345.739170372</v>
       </c>
     </row>
     <row r="9">
@@ -19528,28 +19528,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1084.868578206624</v>
+        <v>1164.800770902658</v>
       </c>
       <c r="AB9" t="n">
-        <v>1484.365049726113</v>
+        <v>1593.73180213229</v>
       </c>
       <c r="AC9" t="n">
-        <v>1342.699332699684</v>
+        <v>1441.628275753416</v>
       </c>
       <c r="AD9" t="n">
-        <v>1084868.578206624</v>
+        <v>1164800.770902658</v>
       </c>
       <c r="AE9" t="n">
-        <v>1484365.049726113</v>
+        <v>1593731.80213229</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.424815244371004e-06</v>
+        <v>2.484753372449536e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.85026041666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1342699.332699684</v>
+        <v>1441628.275753416</v>
       </c>
     </row>
     <row r="10">
@@ -19634,28 +19634,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1062.494688388699</v>
+        <v>1142.426881084733</v>
       </c>
       <c r="AB10" t="n">
-        <v>1453.752106610872</v>
+        <v>1563.118859017049</v>
       </c>
       <c r="AC10" t="n">
-        <v>1315.008045909826</v>
+        <v>1413.936988963559</v>
       </c>
       <c r="AD10" t="n">
-        <v>1062494.688388699</v>
+        <v>1142426.881084733</v>
       </c>
       <c r="AE10" t="n">
-        <v>1453752.106610873</v>
+        <v>1563118.859017049</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.437588172381173e-06</v>
+        <v>2.50702824357736e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.71788194444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>1315008.045909826</v>
+        <v>1413936.988963559</v>
       </c>
     </row>
     <row r="11">
@@ -19740,28 +19740,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1045.027447024672</v>
+        <v>1124.959639720706</v>
       </c>
       <c r="AB11" t="n">
-        <v>1429.852656376308</v>
+        <v>1539.219408782486</v>
       </c>
       <c r="AC11" t="n">
-        <v>1293.38952566256</v>
+        <v>1392.318468716293</v>
       </c>
       <c r="AD11" t="n">
-        <v>1045027.447024673</v>
+        <v>1124959.639720706</v>
       </c>
       <c r="AE11" t="n">
-        <v>1429852.656376309</v>
+        <v>1539219.408782485</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.446070956632202e-06</v>
+        <v>2.521821478601182e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.63107638888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>1293389.52566256</v>
+        <v>1392318.468716293</v>
       </c>
     </row>
     <row r="12">
@@ -19846,28 +19846,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1026.350369997864</v>
+        <v>1106.282562693897</v>
       </c>
       <c r="AB12" t="n">
-        <v>1404.297855613744</v>
+        <v>1513.66460801992</v>
       </c>
       <c r="AC12" t="n">
-        <v>1270.273639218387</v>
+        <v>1369.202582272119</v>
       </c>
       <c r="AD12" t="n">
-        <v>1026350.369997864</v>
+        <v>1106282.562693897</v>
       </c>
       <c r="AE12" t="n">
-        <v>1404297.855613744</v>
+        <v>1513664.608019921</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.455041257219496e-06</v>
+        <v>2.537464899545913e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.54210069444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>1270273.639218386</v>
+        <v>1369202.582272119</v>
       </c>
     </row>
     <row r="13">
@@ -19952,28 +19952,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1011.316559075909</v>
+        <v>1081.246649586668</v>
       </c>
       <c r="AB13" t="n">
-        <v>1383.727932265397</v>
+        <v>1479.409367200075</v>
       </c>
       <c r="AC13" t="n">
-        <v>1251.666880484337</v>
+        <v>1338.216613558587</v>
       </c>
       <c r="AD13" t="n">
-        <v>1011316.559075909</v>
+        <v>1081246.649586668</v>
       </c>
       <c r="AE13" t="n">
-        <v>1383727.932265397</v>
+        <v>1479409.367200075</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.461281466323701e-06</v>
+        <v>2.548347279333552e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.47916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1251666.880484337</v>
+        <v>1338216.613558587</v>
       </c>
     </row>
     <row r="14">
@@ -20058,28 +20058,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>995.0218351235118</v>
+        <v>1064.951925634271</v>
       </c>
       <c r="AB14" t="n">
-        <v>1361.432772081241</v>
+        <v>1457.11420701592</v>
       </c>
       <c r="AC14" t="n">
-        <v>1231.499539096704</v>
+        <v>1318.049272170953</v>
       </c>
       <c r="AD14" t="n">
-        <v>995021.8351235117</v>
+        <v>1064951.925634271</v>
       </c>
       <c r="AE14" t="n">
-        <v>1361432.772081241</v>
+        <v>1457114.20701592</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.467619178695159e-06</v>
+        <v>2.559399696305373e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.41840277777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>1231499.539096704</v>
+        <v>1318049.272170953</v>
       </c>
     </row>
     <row r="15">
@@ -20164,28 +20164,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>982.8641601181107</v>
+        <v>1052.79425062887</v>
       </c>
       <c r="AB15" t="n">
-        <v>1344.798104780085</v>
+        <v>1440.479539714763</v>
       </c>
       <c r="AC15" t="n">
-        <v>1216.452461095867</v>
+        <v>1303.002194170117</v>
       </c>
       <c r="AD15" t="n">
-        <v>982864.1601181107</v>
+        <v>1052794.25062887</v>
       </c>
       <c r="AE15" t="n">
-        <v>1344798.104780085</v>
+        <v>1440479.539714763</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.471519309385287e-06</v>
+        <v>2.566201183672647e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.37934027777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>1216452.461095867</v>
+        <v>1303002.194170117</v>
       </c>
     </row>
     <row r="16">
@@ -20270,28 +20270,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>967.9619685978543</v>
+        <v>1037.892059108613</v>
       </c>
       <c r="AB16" t="n">
-        <v>1324.40826890378</v>
+        <v>1420.089703838458</v>
       </c>
       <c r="AC16" t="n">
-        <v>1198.008602538282</v>
+        <v>1284.558335612532</v>
       </c>
       <c r="AD16" t="n">
-        <v>967961.9685978543</v>
+        <v>1037892.059108613</v>
       </c>
       <c r="AE16" t="n">
-        <v>1324408.26890378</v>
+        <v>1420089.703838458</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.475906956411681e-06</v>
+        <v>2.573852856960831e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.3359375</v>
       </c>
       <c r="AH16" t="n">
-        <v>1198008.602538282</v>
+        <v>1284558.335612532</v>
       </c>
     </row>
     <row r="17">
@@ -20376,28 +20376,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>964.4309553619419</v>
+        <v>1034.361045872701</v>
       </c>
       <c r="AB17" t="n">
-        <v>1319.576980817095</v>
+        <v>1415.258415751773</v>
       </c>
       <c r="AC17" t="n">
-        <v>1193.638405805835</v>
+        <v>1280.188138880085</v>
       </c>
       <c r="AD17" t="n">
-        <v>964430.9553619418</v>
+        <v>1034361.045872701</v>
       </c>
       <c r="AE17" t="n">
-        <v>1319576.980817095</v>
+        <v>1415258.415751773</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.477272002153226e-06</v>
+        <v>2.576233377539377e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.32291666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1193638.405805835</v>
+        <v>1280188.138880085</v>
       </c>
     </row>
     <row r="18">
@@ -20482,28 +20482,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>968.8398930555328</v>
+        <v>1038.769983566292</v>
       </c>
       <c r="AB18" t="n">
-        <v>1325.609483878069</v>
+        <v>1421.290918812748</v>
       </c>
       <c r="AC18" t="n">
-        <v>1199.095175241341</v>
+        <v>1285.644908315591</v>
       </c>
       <c r="AD18" t="n">
-        <v>968839.8930555328</v>
+        <v>1038769.983566292</v>
       </c>
       <c r="AE18" t="n">
-        <v>1325609.483878069</v>
+        <v>1421290.918812748</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.477174498885972e-06</v>
+        <v>2.576063340355195e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.32508680555556</v>
       </c>
       <c r="AH18" t="n">
-        <v>1199095.175241341</v>
+        <v>1285644.908315591</v>
       </c>
     </row>
   </sheetData>
@@ -20779,28 +20779,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4105.577540725472</v>
+        <v>4270.805753706471</v>
       </c>
       <c r="AB2" t="n">
-        <v>5617.432316518828</v>
+        <v>5843.504846873741</v>
       </c>
       <c r="AC2" t="n">
-        <v>5081.312460345832</v>
+        <v>5285.808945698454</v>
       </c>
       <c r="AD2" t="n">
-        <v>4105577.540725472</v>
+        <v>4270805.75370647</v>
       </c>
       <c r="AE2" t="n">
-        <v>5617432.316518828</v>
+        <v>5843504.846873742</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.534224280899115e-07</v>
+        <v>1.110774821280512e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.25651041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5081312.460345832</v>
+        <v>5285808.945698454</v>
       </c>
     </row>
     <row r="3">
@@ -20885,28 +20885,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2013.690379635098</v>
+        <v>2116.979381527571</v>
       </c>
       <c r="AB3" t="n">
-        <v>2755.220015166437</v>
+        <v>2896.54458434488</v>
       </c>
       <c r="AC3" t="n">
-        <v>2492.26568389453</v>
+        <v>2620.102434540861</v>
       </c>
       <c r="AD3" t="n">
-        <v>2013690.379635098</v>
+        <v>2116979.381527571</v>
       </c>
       <c r="AE3" t="n">
-        <v>2755220.015166437</v>
+        <v>2896544.58434488</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.014719950981625e-06</v>
+        <v>1.724956664704952e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.12803819444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2492265.68389453</v>
+        <v>2620102.434540861</v>
       </c>
     </row>
     <row r="4">
@@ -20991,28 +20991,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1640.917659552923</v>
+        <v>1733.954487467567</v>
       </c>
       <c r="AB4" t="n">
-        <v>2245.175933978265</v>
+        <v>2372.473026426248</v>
       </c>
       <c r="AC4" t="n">
-        <v>2030.899493963593</v>
+        <v>2146.047530570932</v>
       </c>
       <c r="AD4" t="n">
-        <v>1640917.659552923</v>
+        <v>1733954.487467567</v>
       </c>
       <c r="AE4" t="n">
-        <v>2245175.933978265</v>
+        <v>2372473.026426248</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.15419453522896e-06</v>
+        <v>1.962054214055049e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.6953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2030899.493963593</v>
+        <v>2146047.530570932</v>
       </c>
     </row>
     <row r="5">
@@ -21097,28 +21097,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1488.63116118255</v>
+        <v>1581.582648242623</v>
       </c>
       <c r="AB5" t="n">
-        <v>2036.810828501775</v>
+        <v>2163.99115382756</v>
       </c>
       <c r="AC5" t="n">
-        <v>1842.420461711517</v>
+        <v>1957.462875286917</v>
       </c>
       <c r="AD5" t="n">
-        <v>1488631.16118255</v>
+        <v>1581582.648242623</v>
       </c>
       <c r="AE5" t="n">
-        <v>2036810.828501775</v>
+        <v>2163991.15382756</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.227978660768712e-06</v>
+        <v>2.087482337327974e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.63194444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1842420.461711517</v>
+        <v>1957462.875286917</v>
       </c>
     </row>
     <row r="6">
@@ -21203,28 +21203,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1408.064173687945</v>
+        <v>1490.67832493272</v>
       </c>
       <c r="AB6" t="n">
-        <v>1926.575521847022</v>
+        <v>2039.611848259247</v>
       </c>
       <c r="AC6" t="n">
-        <v>1742.705858007669</v>
+        <v>1844.954156074592</v>
       </c>
       <c r="AD6" t="n">
-        <v>1408064.173687945</v>
+        <v>1490678.32493272</v>
       </c>
       <c r="AE6" t="n">
-        <v>1926575.521847022</v>
+        <v>2039611.848259247</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.274470188851157e-06</v>
+        <v>2.166514853778006e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.02430555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1742705.858007669</v>
+        <v>1844954.156074592</v>
       </c>
     </row>
     <row r="7">
@@ -21309,28 +21309,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1346.581023319527</v>
+        <v>1429.280425910321</v>
       </c>
       <c r="AB7" t="n">
-        <v>1842.451563067792</v>
+        <v>1955.604534132666</v>
       </c>
       <c r="AC7" t="n">
-        <v>1666.610571785611</v>
+        <v>1768.964382103246</v>
       </c>
       <c r="AD7" t="n">
-        <v>1346581.023319527</v>
+        <v>1429280.425910321</v>
       </c>
       <c r="AE7" t="n">
-        <v>1842451.563067792</v>
+        <v>1955604.534132666</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.305056720484344e-06</v>
+        <v>2.21850993038987e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.65104166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1666610.571785611</v>
+        <v>1768964.382103246</v>
       </c>
     </row>
     <row r="8">
@@ -21415,28 +21415,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1308.634719724245</v>
+        <v>1391.163530114447</v>
       </c>
       <c r="AB8" t="n">
-        <v>1790.531756415963</v>
+        <v>1903.45131570599</v>
       </c>
       <c r="AC8" t="n">
-        <v>1619.645918610727</v>
+        <v>1721.78859364571</v>
       </c>
       <c r="AD8" t="n">
-        <v>1308634.719724245</v>
+        <v>1391163.530114447</v>
       </c>
       <c r="AE8" t="n">
-        <v>1790531.756415963</v>
+        <v>1903451.31570599</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.328020147310491e-06</v>
+        <v>2.257546234061546e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.37977430555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1619645.918610726</v>
+        <v>1721788.59364571</v>
       </c>
     </row>
     <row r="9">
@@ -21521,28 +21521,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1278.981992558909</v>
+        <v>1351.344059334406</v>
       </c>
       <c r="AB9" t="n">
-        <v>1749.959586922356</v>
+        <v>1848.968559073669</v>
       </c>
       <c r="AC9" t="n">
-        <v>1582.945900030192</v>
+        <v>1672.505594839349</v>
       </c>
       <c r="AD9" t="n">
-        <v>1278981.992558909</v>
+        <v>1351344.059334406</v>
       </c>
       <c r="AE9" t="n">
-        <v>1749959.586922356</v>
+        <v>1848968.559073669</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.345619167050202e-06</v>
+        <v>2.287463401219756e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.17795138888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1582945.900030192</v>
+        <v>1672505.594839348</v>
       </c>
     </row>
     <row r="10">
@@ -21627,28 +21627,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1254.5779616689</v>
+        <v>1326.940028444397</v>
       </c>
       <c r="AB10" t="n">
-        <v>1716.568915228787</v>
+        <v>1815.5778873801</v>
       </c>
       <c r="AC10" t="n">
-        <v>1552.741987178955</v>
+        <v>1642.301681988112</v>
       </c>
       <c r="AD10" t="n">
-        <v>1254577.9616689</v>
+        <v>1326940.028444397</v>
       </c>
       <c r="AE10" t="n">
-        <v>1716568.915228787</v>
+        <v>1815577.8873801</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.360018365019057e-06</v>
+        <v>2.31194108344011e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.01736111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>1552741.987178955</v>
+        <v>1642301.681988112</v>
       </c>
     </row>
     <row r="11">
@@ -21733,28 +21733,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1224.678568143248</v>
+        <v>1307.292629879471</v>
       </c>
       <c r="AB11" t="n">
-        <v>1675.659245938842</v>
+        <v>1788.695449881519</v>
       </c>
       <c r="AC11" t="n">
-        <v>1515.736679308961</v>
+        <v>1617.984866594657</v>
       </c>
       <c r="AD11" t="n">
-        <v>1224678.568143248</v>
+        <v>1307292.629879471</v>
       </c>
       <c r="AE11" t="n">
-        <v>1675659.245938842</v>
+        <v>1788695.449881519</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.370370729571828e-06</v>
+        <v>2.329539417062587e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.90234375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1515736.679308961</v>
+        <v>1617984.866594657</v>
       </c>
     </row>
     <row r="12">
@@ -21839,28 +21839,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1209.450601647708</v>
+        <v>1292.064663383931</v>
       </c>
       <c r="AB12" t="n">
-        <v>1654.823670369177</v>
+        <v>1767.859874311853</v>
       </c>
       <c r="AC12" t="n">
-        <v>1496.889621828751</v>
+        <v>1599.137809114446</v>
       </c>
       <c r="AD12" t="n">
-        <v>1209450.601647708</v>
+        <v>1292064.663383931</v>
       </c>
       <c r="AE12" t="n">
-        <v>1654823.670369177</v>
+        <v>1767859.874311853</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.37874673361907e-06</v>
+        <v>2.343778068811682e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.81336805555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>1496889.621828751</v>
+        <v>1599137.809114446</v>
       </c>
     </row>
     <row r="13">
@@ -21945,28 +21945,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1192.615133004324</v>
+        <v>1275.229194740548</v>
       </c>
       <c r="AB13" t="n">
-        <v>1631.788639442842</v>
+        <v>1744.824843385518</v>
       </c>
       <c r="AC13" t="n">
-        <v>1476.053021924156</v>
+        <v>1578.301209209852</v>
       </c>
       <c r="AD13" t="n">
-        <v>1192615.133004324</v>
+        <v>1275229.194740548</v>
       </c>
       <c r="AE13" t="n">
-        <v>1631788.639442842</v>
+        <v>1744824.843385518</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.386840400451236e-06</v>
+        <v>2.357536766007437e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.7265625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1476053.021924156</v>
+        <v>1578301.209209852</v>
       </c>
     </row>
     <row r="14">
@@ -22051,28 +22051,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1178.979109483242</v>
+        <v>1261.593171219465</v>
       </c>
       <c r="AB14" t="n">
-        <v>1613.131230482397</v>
+        <v>1726.167434425073</v>
       </c>
       <c r="AC14" t="n">
-        <v>1459.176249889058</v>
+        <v>1561.424437174754</v>
       </c>
       <c r="AD14" t="n">
-        <v>1178979.109483242</v>
+        <v>1261593.171219465</v>
       </c>
       <c r="AE14" t="n">
-        <v>1613131.230482397</v>
+        <v>1726167.434425073</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.392675369562798e-06</v>
+        <v>2.367455826776469e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.66579861111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>1459176.249889058</v>
+        <v>1561424.437174754</v>
       </c>
     </row>
     <row r="15">
@@ -22157,28 +22157,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1165.025719109</v>
+        <v>1247.639780845223</v>
       </c>
       <c r="AB15" t="n">
-        <v>1594.03958619222</v>
+        <v>1707.075790134897</v>
       </c>
       <c r="AC15" t="n">
-        <v>1441.906685334645</v>
+        <v>1544.15487262034</v>
       </c>
       <c r="AD15" t="n">
-        <v>1165025.719108999</v>
+        <v>1247639.780845223</v>
       </c>
       <c r="AE15" t="n">
-        <v>1594039.58619222</v>
+        <v>1707075.790134897</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.399357350319587e-06</v>
+        <v>2.378814751205522e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.59635416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1441906.685334645</v>
+        <v>1544154.87262034</v>
       </c>
     </row>
     <row r="16">
@@ -22263,28 +22263,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1153.306278117115</v>
+        <v>1235.920339853338</v>
       </c>
       <c r="AB16" t="n">
-        <v>1578.004530001878</v>
+        <v>1691.040733944554</v>
       </c>
       <c r="AC16" t="n">
-        <v>1427.401992401766</v>
+        <v>1529.650179687462</v>
       </c>
       <c r="AD16" t="n">
-        <v>1153306.278117115</v>
+        <v>1235920.339853338</v>
       </c>
       <c r="AE16" t="n">
-        <v>1578004.530001878</v>
+        <v>1691040.733944554</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.403780633355771e-06</v>
+        <v>2.386334039207853e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.54861111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>1427401.992401766</v>
+        <v>1529650.179687462</v>
       </c>
     </row>
     <row r="17">
@@ -22369,28 +22369,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1141.194249947549</v>
+        <v>1213.470975868474</v>
       </c>
       <c r="AB17" t="n">
-        <v>1561.432318715307</v>
+        <v>1660.324523744422</v>
       </c>
       <c r="AC17" t="n">
-        <v>1412.411409701141</v>
+        <v>1501.865481478358</v>
       </c>
       <c r="AD17" t="n">
-        <v>1141194.249947549</v>
+        <v>1213470.975868474</v>
       </c>
       <c r="AE17" t="n">
-        <v>1561432.318715307</v>
+        <v>1660324.523744422</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.408862703227132e-06</v>
+        <v>2.394973221167978e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.49652777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>1412411.409701141</v>
+        <v>1501865.481478358</v>
       </c>
     </row>
     <row r="18">
@@ -22475,28 +22475,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1130.408272975724</v>
+        <v>1202.684998896649</v>
       </c>
       <c r="AB18" t="n">
-        <v>1546.674469178736</v>
+        <v>1645.566674207851</v>
       </c>
       <c r="AC18" t="n">
-        <v>1399.062028611567</v>
+        <v>1488.516100388786</v>
       </c>
       <c r="AD18" t="n">
-        <v>1130408.272975724</v>
+        <v>1202684.998896649</v>
       </c>
       <c r="AE18" t="n">
-        <v>1546674.469178736</v>
+        <v>1645566.674207851</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.411686075377887e-06</v>
+        <v>2.399772766701381e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.46831597222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>1399062.028611568</v>
+        <v>1488516.100388786</v>
       </c>
     </row>
     <row r="19">
@@ -22581,28 +22581,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1120.614822227737</v>
+        <v>1192.891548148661</v>
       </c>
       <c r="AB19" t="n">
-        <v>1533.274637808785</v>
+        <v>1632.1668428379</v>
       </c>
       <c r="AC19" t="n">
-        <v>1386.941058340783</v>
+        <v>1476.395130118001</v>
       </c>
       <c r="AD19" t="n">
-        <v>1120614.822227736</v>
+        <v>1192891.548148661</v>
       </c>
       <c r="AE19" t="n">
-        <v>1533274.637808785</v>
+        <v>1632166.8428379</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.414509447528643e-06</v>
+        <v>2.404572312234783e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.43793402777778</v>
       </c>
       <c r="AH19" t="n">
-        <v>1386941.058340783</v>
+        <v>1476395.130118001</v>
       </c>
     </row>
     <row r="20">
@@ -22687,28 +22687,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1109.787357838853</v>
+        <v>1182.064083759778</v>
       </c>
       <c r="AB20" t="n">
-        <v>1518.460023357899</v>
+        <v>1617.352228387014</v>
       </c>
       <c r="AC20" t="n">
-        <v>1373.540329900648</v>
+        <v>1462.994401677866</v>
       </c>
       <c r="AD20" t="n">
-        <v>1109787.357838853</v>
+        <v>1182064.083759778</v>
       </c>
       <c r="AE20" t="n">
-        <v>1518460.023357898</v>
+        <v>1617352.228387014</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.417521044489449e-06</v>
+        <v>2.409691827470413e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.40755208333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1373540.329900648</v>
+        <v>1462994.401677866</v>
       </c>
     </row>
     <row r="21">
@@ -22793,28 +22793,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1100.518420305756</v>
+        <v>1172.795146226681</v>
       </c>
       <c r="AB21" t="n">
-        <v>1505.777854108451</v>
+        <v>1604.670059137566</v>
       </c>
       <c r="AC21" t="n">
-        <v>1362.068529084831</v>
+        <v>1451.522600862049</v>
       </c>
       <c r="AD21" t="n">
-        <v>1100518.420305756</v>
+        <v>1172795.146226681</v>
       </c>
       <c r="AE21" t="n">
-        <v>1505777.854108451</v>
+        <v>1604670.059137566</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.421191428285432e-06</v>
+        <v>2.415931236663836e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.37065972222222</v>
       </c>
       <c r="AH21" t="n">
-        <v>1362068.529084831</v>
+        <v>1451522.600862049</v>
       </c>
     </row>
     <row r="22">
@@ -22899,28 +22899,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1088.697851845751</v>
+        <v>1160.974577766676</v>
       </c>
       <c r="AB22" t="n">
-        <v>1489.604430854797</v>
+        <v>1588.496635883912</v>
       </c>
       <c r="AC22" t="n">
-        <v>1347.438674646964</v>
+        <v>1436.892746424181</v>
       </c>
       <c r="AD22" t="n">
-        <v>1088697.851845751</v>
+        <v>1160974.577766676</v>
       </c>
       <c r="AE22" t="n">
-        <v>1489604.430854797</v>
+        <v>1588496.635883912</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.424297137651263e-06</v>
+        <v>2.42121073675058e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>14.34027777777778</v>
       </c>
       <c r="AH22" t="n">
-        <v>1347438.674646964</v>
+        <v>1436892.746424181</v>
       </c>
     </row>
     <row r="23">
@@ -23005,28 +23005,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1082.54045925294</v>
+        <v>1154.817185173865</v>
       </c>
       <c r="AB23" t="n">
-        <v>1481.179614664323</v>
+        <v>1580.071819693438</v>
       </c>
       <c r="AC23" t="n">
-        <v>1339.817911089405</v>
+        <v>1429.271982866622</v>
       </c>
       <c r="AD23" t="n">
-        <v>1082540.45925294</v>
+        <v>1154817.185173865</v>
       </c>
       <c r="AE23" t="n">
-        <v>1481179.614664322</v>
+        <v>1580071.819693438</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.425614711321616e-06</v>
+        <v>2.423450524666168e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>14.32725694444444</v>
       </c>
       <c r="AH23" t="n">
-        <v>1339817.911089404</v>
+        <v>1429271.982866623</v>
       </c>
     </row>
     <row r="24">
@@ -23111,28 +23111,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1078.105467941318</v>
+        <v>1150.382193862243</v>
       </c>
       <c r="AB24" t="n">
-        <v>1475.111463893753</v>
+        <v>1574.003668922868</v>
       </c>
       <c r="AC24" t="n">
-        <v>1334.328896111675</v>
+        <v>1423.782967888893</v>
       </c>
       <c r="AD24" t="n">
-        <v>1078105.467941317</v>
+        <v>1150382.193862242</v>
       </c>
       <c r="AE24" t="n">
-        <v>1475111.463893753</v>
+        <v>1574003.668922868</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.427120509802019e-06</v>
+        <v>2.426010282283983e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>14.30989583333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>1334328.896111675</v>
+        <v>1423782.967888893</v>
       </c>
     </row>
     <row r="25">
@@ -23217,28 +23217,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1082.317597332845</v>
+        <v>1154.59432325377</v>
       </c>
       <c r="AB25" t="n">
-        <v>1480.874685153275</v>
+        <v>1579.76689018239</v>
       </c>
       <c r="AC25" t="n">
-        <v>1339.54208362292</v>
+        <v>1428.996155400138</v>
       </c>
       <c r="AD25" t="n">
-        <v>1082317.597332845</v>
+        <v>1154594.32325377</v>
       </c>
       <c r="AE25" t="n">
-        <v>1480874.685153275</v>
+        <v>1579766.89018239</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.426932284991968e-06</v>
+        <v>2.425690312581755e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>14.31206597222222</v>
       </c>
       <c r="AH25" t="n">
-        <v>1339542.08362292</v>
+        <v>1428996.155400138</v>
       </c>
     </row>
   </sheetData>
@@ -23514,28 +23514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1947.710335581171</v>
+        <v>2062.922751060447</v>
       </c>
       <c r="AB2" t="n">
-        <v>2664.943208057746</v>
+        <v>2822.581917729536</v>
       </c>
       <c r="AC2" t="n">
-        <v>2410.604768551998</v>
+        <v>2553.198661020031</v>
       </c>
       <c r="AD2" t="n">
-        <v>1947710.335581171</v>
+        <v>2062922.751060447</v>
       </c>
       <c r="AE2" t="n">
-        <v>2664943.208057746</v>
+        <v>2822581.917729536</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.800733667856746e-07</v>
+        <v>1.767304204819701e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.54340277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2410604.768551998</v>
+        <v>2553198.661020031</v>
       </c>
     </row>
     <row r="3">
@@ -23620,28 +23620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1258.291630777284</v>
+        <v>1344.594355827078</v>
       </c>
       <c r="AB3" t="n">
-        <v>1721.650121138397</v>
+        <v>1839.73331695904</v>
       </c>
       <c r="AC3" t="n">
-        <v>1557.338249928068</v>
+        <v>1664.151751270396</v>
       </c>
       <c r="AD3" t="n">
-        <v>1258291.630777284</v>
+        <v>1344594.355827078</v>
       </c>
       <c r="AE3" t="n">
-        <v>1721650.121138397</v>
+        <v>1839733.31695904</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.276559305293869e-06</v>
+        <v>2.301938512365408e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.30902777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1557338.249928068</v>
+        <v>1664151.751270396</v>
       </c>
     </row>
     <row r="4">
@@ -23726,28 +23726,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1092.181831907053</v>
+        <v>1178.484467448296</v>
       </c>
       <c r="AB4" t="n">
-        <v>1494.371366077022</v>
+        <v>1612.454439428118</v>
       </c>
       <c r="AC4" t="n">
-        <v>1351.750660262016</v>
+        <v>1458.564050823117</v>
       </c>
       <c r="AD4" t="n">
-        <v>1092181.831907053</v>
+        <v>1178484.467448296</v>
       </c>
       <c r="AE4" t="n">
-        <v>1494371.366077022</v>
+        <v>1612454.439428118</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.381836249118551e-06</v>
+        <v>2.491777754811239e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1351750.660262016</v>
+        <v>1458564.050823117</v>
       </c>
     </row>
     <row r="5">
@@ -23832,28 +23832,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1021.574876047891</v>
+        <v>1098.269454736531</v>
       </c>
       <c r="AB5" t="n">
-        <v>1397.763814111466</v>
+        <v>1502.700720199278</v>
       </c>
       <c r="AC5" t="n">
-        <v>1264.363197466501</v>
+        <v>1359.285072517165</v>
       </c>
       <c r="AD5" t="n">
-        <v>1021574.876047891</v>
+        <v>1098269.454736531</v>
       </c>
       <c r="AE5" t="n">
-        <v>1397763.814111467</v>
+        <v>1502700.720199278</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.436307395101341e-06</v>
+        <v>2.590002121067061e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.38411458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1264363.197466501</v>
+        <v>1359285.072517165</v>
       </c>
     </row>
     <row r="6">
@@ -23938,28 +23938,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>976.881691708892</v>
+        <v>1044.138805745521</v>
       </c>
       <c r="AB6" t="n">
-        <v>1336.612627574712</v>
+        <v>1428.636778174087</v>
       </c>
       <c r="AC6" t="n">
-        <v>1209.048194346586</v>
+        <v>1292.289689169463</v>
       </c>
       <c r="AD6" t="n">
-        <v>976881.691708892</v>
+        <v>1044138.805745521</v>
       </c>
       <c r="AE6" t="n">
-        <v>1336612.627574713</v>
+        <v>1428636.778174087</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.469499158821696e-06</v>
+        <v>2.649854725551917e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.03472222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1209048.194346586</v>
+        <v>1292289.689169463</v>
       </c>
     </row>
     <row r="7">
@@ -24044,28 +24044,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>932.5611389262123</v>
+        <v>1009.340968960873</v>
       </c>
       <c r="AB7" t="n">
-        <v>1275.971291972658</v>
+        <v>1381.024842713119</v>
       </c>
       <c r="AC7" t="n">
-        <v>1154.194382703743</v>
+        <v>1249.221770005119</v>
       </c>
       <c r="AD7" t="n">
-        <v>932561.1389262122</v>
+        <v>1009340.968960873</v>
       </c>
       <c r="AE7" t="n">
-        <v>1275971.291972659</v>
+        <v>1381024.842713119</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.493629367415941e-06</v>
+        <v>2.693367201818514e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.79383680555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1154194.382703743</v>
+        <v>1249221.770005119</v>
       </c>
     </row>
     <row r="8">
@@ -24150,28 +24150,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>905.7828660747863</v>
+        <v>982.5626961094466</v>
       </c>
       <c r="AB8" t="n">
-        <v>1239.332077683316</v>
+        <v>1344.385628423777</v>
       </c>
       <c r="AC8" t="n">
-        <v>1121.051963602716</v>
+        <v>1216.079350904091</v>
       </c>
       <c r="AD8" t="n">
-        <v>905782.8660747863</v>
+        <v>982562.6961094466</v>
       </c>
       <c r="AE8" t="n">
-        <v>1239332.077683316</v>
+        <v>1344385.628423777</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.509614357919301e-06</v>
+        <v>2.722191922383307e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.63541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1121051.963602716</v>
+        <v>1216079.350904091</v>
       </c>
     </row>
     <row r="9">
@@ -24256,28 +24256,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>882.0314786243028</v>
+        <v>949.3738440069523</v>
       </c>
       <c r="AB9" t="n">
-        <v>1206.834381536303</v>
+        <v>1298.975176788327</v>
       </c>
       <c r="AC9" t="n">
-        <v>1091.65580196517</v>
+        <v>1175.00280903876</v>
       </c>
       <c r="AD9" t="n">
-        <v>882031.4786243029</v>
+        <v>949373.8440069522</v>
       </c>
       <c r="AE9" t="n">
-        <v>1206834.381536304</v>
+        <v>1298975.176788327</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.522239445960172e-06</v>
+        <v>2.744957943721105e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.51388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1091655.801965171</v>
+        <v>1175002.809038759</v>
       </c>
     </row>
     <row r="10">
@@ -24362,28 +24362,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>859.8054297143844</v>
+        <v>926.9772028964418</v>
       </c>
       <c r="AB10" t="n">
-        <v>1176.423720873678</v>
+        <v>1268.331104350855</v>
       </c>
       <c r="AC10" t="n">
-        <v>1064.147492074556</v>
+        <v>1147.283363865494</v>
       </c>
       <c r="AD10" t="n">
-        <v>859805.4297143845</v>
+        <v>926977.2028964418</v>
       </c>
       <c r="AE10" t="n">
-        <v>1176423.720873678</v>
+        <v>1268331.104350855</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.532217338121506e-06</v>
+        <v>2.762950444455816e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.42057291666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1064147.492074556</v>
+        <v>1147283.363865494</v>
       </c>
     </row>
     <row r="11">
@@ -24468,28 +24468,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>851.0132245153466</v>
+        <v>918.1849976974039</v>
       </c>
       <c r="AB11" t="n">
-        <v>1164.393837835637</v>
+        <v>1256.301221312814</v>
       </c>
       <c r="AC11" t="n">
-        <v>1053.265724189619</v>
+        <v>1136.401595980557</v>
       </c>
       <c r="AD11" t="n">
-        <v>851013.2245153466</v>
+        <v>918184.9976974039</v>
       </c>
       <c r="AE11" t="n">
-        <v>1164393.837835637</v>
+        <v>1256301.221312814</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.535780871036268e-06</v>
+        <v>2.769376337575356e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.38802083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1053265.724189619</v>
+        <v>1136401.595980556</v>
       </c>
     </row>
     <row r="12">
@@ -24574,28 +24574,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>855.2283423144098</v>
+        <v>922.4001154964672</v>
       </c>
       <c r="AB12" t="n">
-        <v>1170.161147966188</v>
+        <v>1262.068531443365</v>
       </c>
       <c r="AC12" t="n">
-        <v>1058.48261033578</v>
+        <v>1141.618482126718</v>
       </c>
       <c r="AD12" t="n">
-        <v>855228.3423144098</v>
+        <v>922400.1154964671</v>
       </c>
       <c r="AE12" t="n">
-        <v>1170161.147966188</v>
+        <v>1262068.531443365</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.535577240583996e-06</v>
+        <v>2.769009143682811e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.38802083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1058482.610335781</v>
+        <v>1141618.482126718</v>
       </c>
     </row>
   </sheetData>
@@ -24871,28 +24871,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1415.701114418225</v>
+        <v>1508.133068066966</v>
       </c>
       <c r="AB2" t="n">
-        <v>1937.024721072237</v>
+        <v>2063.494197864442</v>
       </c>
       <c r="AC2" t="n">
-        <v>1752.157800324373</v>
+        <v>1866.557207752556</v>
       </c>
       <c r="AD2" t="n">
-        <v>1415701.114418224</v>
+        <v>1508133.068066966</v>
       </c>
       <c r="AE2" t="n">
-        <v>1937024.721072237</v>
+        <v>2063494.197864443</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.148286882243412e-06</v>
+        <v>2.142336280703284e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.04340277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1752157.800324373</v>
+        <v>1866557.207752556</v>
       </c>
     </row>
     <row r="3">
@@ -24977,28 +24977,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000.320216580019</v>
+        <v>1074.248729229809</v>
       </c>
       <c r="AB3" t="n">
-        <v>1368.682251338128</v>
+        <v>1469.834503841363</v>
       </c>
       <c r="AC3" t="n">
-        <v>1238.05713822802</v>
+        <v>1329.555561720425</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000320.216580019</v>
+        <v>1074248.729229809</v>
       </c>
       <c r="AE3" t="n">
-        <v>1368682.251338128</v>
+        <v>1469834.503841363</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.405158668407035e-06</v>
+        <v>2.621576926483588e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.37803819444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1238057.13822802</v>
+        <v>1329555.561720425</v>
       </c>
     </row>
     <row r="4">
@@ -25083,28 +25083,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>888.0196705860302</v>
+        <v>961.862842381248</v>
       </c>
       <c r="AB4" t="n">
-        <v>1215.027689958723</v>
+        <v>1316.063175339761</v>
       </c>
       <c r="AC4" t="n">
-        <v>1099.067152531135</v>
+        <v>1190.459952991601</v>
       </c>
       <c r="AD4" t="n">
-        <v>888019.6705860302</v>
+        <v>961862.842381248</v>
       </c>
       <c r="AE4" t="n">
-        <v>1215027.689958723</v>
+        <v>1316063.175339761</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.496156188030647e-06</v>
+        <v>2.791349211404934e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.38411458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1099067.152531135</v>
+        <v>1190459.952991601</v>
       </c>
     </row>
     <row r="5">
@@ -25189,28 +25189,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>825.1913000545937</v>
+        <v>899.1197231958321</v>
       </c>
       <c r="AB5" t="n">
-        <v>1129.063141605527</v>
+        <v>1230.215271639214</v>
       </c>
       <c r="AC5" t="n">
-        <v>1021.306940020767</v>
+        <v>1112.805252731945</v>
       </c>
       <c r="AD5" t="n">
-        <v>825191.3000545937</v>
+        <v>899119.7231958321</v>
       </c>
       <c r="AE5" t="n">
-        <v>1129063.141605527</v>
+        <v>1230215.271639214</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.541654947842453e-06</v>
+        <v>2.876235353865607e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.92838541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1021306.940020767</v>
+        <v>1112805.252731945</v>
       </c>
     </row>
     <row r="6">
@@ -25295,28 +25295,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>786.0993233346591</v>
+        <v>860.0277464758975</v>
       </c>
       <c r="AB6" t="n">
-        <v>1075.575774441017</v>
+        <v>1176.727904474704</v>
       </c>
       <c r="AC6" t="n">
-        <v>972.9243321084464</v>
+        <v>1064.422644819624</v>
       </c>
       <c r="AD6" t="n">
-        <v>786099.3233346591</v>
+        <v>860027.7464758975</v>
       </c>
       <c r="AE6" t="n">
-        <v>1075575.774441017</v>
+        <v>1176727.904474704</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.570820819516688e-06</v>
+        <v>2.930649547750654e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.65277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>972924.3321084464</v>
+        <v>1064422.644819624</v>
       </c>
     </row>
     <row r="7">
@@ -25401,28 +25401,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>758.3137089903555</v>
+        <v>823.1610933412608</v>
       </c>
       <c r="AB7" t="n">
-        <v>1037.55827108035</v>
+        <v>1126.285323213946</v>
       </c>
       <c r="AC7" t="n">
-        <v>938.5351659106198</v>
+        <v>1018.794232717786</v>
       </c>
       <c r="AD7" t="n">
-        <v>758313.7089903555</v>
+        <v>823161.0933412608</v>
       </c>
       <c r="AE7" t="n">
-        <v>1037558.27108035</v>
+        <v>1126285.323213946</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.586199188217648e-06</v>
+        <v>2.95934066816277e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.50954861111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>938535.1659106198</v>
+        <v>1018794.232717786</v>
       </c>
     </row>
     <row r="8">
@@ -25507,28 +25507,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>760.8952326641685</v>
+        <v>825.7426170150738</v>
       </c>
       <c r="AB8" t="n">
-        <v>1041.090425659647</v>
+        <v>1129.817477793244</v>
       </c>
       <c r="AC8" t="n">
-        <v>941.7302166142795</v>
+        <v>1021.989283421445</v>
       </c>
       <c r="AD8" t="n">
-        <v>760895.2326641685</v>
+        <v>825742.6170150739</v>
       </c>
       <c r="AE8" t="n">
-        <v>1041090.425659647</v>
+        <v>1129817.477793244</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.586623419078364e-06</v>
+        <v>2.960132147346553e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.50737847222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>941730.2166142794</v>
+        <v>1021989.283421445</v>
       </c>
     </row>
   </sheetData>
@@ -47825,28 +47825,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1092.292919816535</v>
+        <v>1181.705213226298</v>
       </c>
       <c r="AB2" t="n">
-        <v>1494.523361455628</v>
+        <v>1616.861205890856</v>
       </c>
       <c r="AC2" t="n">
-        <v>1351.888149415014</v>
+        <v>1462.550241679587</v>
       </c>
       <c r="AD2" t="n">
-        <v>1092292.919816535</v>
+        <v>1181705.213226298</v>
       </c>
       <c r="AE2" t="n">
-        <v>1494523.361455628</v>
+        <v>1616861.205890856</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.287687670734367e-06</v>
+        <v>2.476271142926682e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.48958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1351888.149415014</v>
+        <v>1462550.241679587</v>
       </c>
     </row>
     <row r="3">
@@ -47931,28 +47931,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>816.3578499433208</v>
+        <v>888.0924311152625</v>
       </c>
       <c r="AB3" t="n">
-        <v>1116.976825458969</v>
+        <v>1215.127244124787</v>
       </c>
       <c r="AC3" t="n">
-        <v>1010.374124923985</v>
+        <v>1099.157205387315</v>
       </c>
       <c r="AD3" t="n">
-        <v>816357.8499433208</v>
+        <v>888092.4311152624</v>
       </c>
       <c r="AE3" t="n">
-        <v>1116976.825458969</v>
+        <v>1215127.244124787</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.511828925851545e-06</v>
+        <v>2.907303088483402e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.74869791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1010374.124923985</v>
+        <v>1099157.205387315</v>
       </c>
     </row>
     <row r="4">
@@ -48037,28 +48037,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>728.879469929832</v>
+        <v>800.5287102472021</v>
       </c>
       <c r="AB4" t="n">
-        <v>997.2850466507614</v>
+        <v>1095.318698194381</v>
       </c>
       <c r="AC4" t="n">
-        <v>902.1055614967659</v>
+        <v>990.7830189281572</v>
       </c>
       <c r="AD4" t="n">
-        <v>728879.469929832</v>
+        <v>800528.7102472021</v>
       </c>
       <c r="AE4" t="n">
-        <v>997285.0466507614</v>
+        <v>1095318.698194381</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.589285473141181e-06</v>
+        <v>3.056254901289591e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.98046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>902105.5614967658</v>
+        <v>990783.0189281572</v>
       </c>
     </row>
     <row r="5">
@@ -48143,28 +48143,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>686.2862799759049</v>
+        <v>757.9355202932749</v>
       </c>
       <c r="AB5" t="n">
-        <v>939.0071650768762</v>
+        <v>1037.040816620496</v>
       </c>
       <c r="AC5" t="n">
-        <v>849.3896391467717</v>
+        <v>938.067096578163</v>
       </c>
       <c r="AD5" t="n">
-        <v>686286.2799759049</v>
+        <v>757935.5202932749</v>
       </c>
       <c r="AE5" t="n">
-        <v>939007.1650768762</v>
+        <v>1037040.816620496</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.624612680261951e-06</v>
+        <v>3.124190430643122e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.65494791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>849389.6391467717</v>
+        <v>938067.0965781631</v>
       </c>
     </row>
     <row r="6">
@@ -48249,28 +48249,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>689.5921392555721</v>
+        <v>761.2413795729422</v>
       </c>
       <c r="AB6" t="n">
-        <v>943.5303875875352</v>
+        <v>1041.564039131155</v>
       </c>
       <c r="AC6" t="n">
-        <v>853.4811716493962</v>
+        <v>942.1586290807875</v>
       </c>
       <c r="AD6" t="n">
-        <v>689592.1392555721</v>
+        <v>761241.3795729422</v>
       </c>
       <c r="AE6" t="n">
-        <v>943530.3875875352</v>
+        <v>1041564.039131155</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.62494181573202e-06</v>
+        <v>3.124823370357595e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.65277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>853481.1716493962</v>
+        <v>942158.6290807875</v>
       </c>
     </row>
   </sheetData>
@@ -48546,28 +48546,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>613.2847340189131</v>
+        <v>680.4160166737137</v>
       </c>
       <c r="AB2" t="n">
-        <v>839.123229297611</v>
+        <v>930.975211849079</v>
       </c>
       <c r="AC2" t="n">
-        <v>759.0384860102953</v>
+        <v>842.1242442621184</v>
       </c>
       <c r="AD2" t="n">
-        <v>613284.7340189131</v>
+        <v>680416.0166737137</v>
       </c>
       <c r="AE2" t="n">
-        <v>839123.229297611</v>
+        <v>930975.211849079</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.590388957764869e-06</v>
+        <v>3.280335184988617e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.06770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>759038.4860102953</v>
+        <v>842124.2442621184</v>
       </c>
     </row>
     <row r="3">
@@ -48652,28 +48652,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>553.6715507694015</v>
+        <v>620.7174925696303</v>
       </c>
       <c r="AB3" t="n">
-        <v>757.5578420275966</v>
+        <v>849.2930574568668</v>
       </c>
       <c r="AC3" t="n">
-        <v>685.2575848235912</v>
+        <v>768.2377200434753</v>
       </c>
       <c r="AD3" t="n">
-        <v>553671.5507694015</v>
+        <v>620717.4925696303</v>
       </c>
       <c r="AE3" t="n">
-        <v>757557.8420275967</v>
+        <v>849293.0574568668</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.667871257054761e-06</v>
+        <v>3.440150122921574e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.32118055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>685257.5848235912</v>
+        <v>768237.7200434753</v>
       </c>
     </row>
   </sheetData>
@@ -48949,28 +48949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2598.753966102621</v>
+        <v>2727.416311514464</v>
       </c>
       <c r="AB2" t="n">
-        <v>3555.729825355277</v>
+        <v>3731.771322529847</v>
       </c>
       <c r="AC2" t="n">
-        <v>3216.375961321388</v>
+        <v>3375.616305081404</v>
       </c>
       <c r="AD2" t="n">
-        <v>2598753.966102621</v>
+        <v>2727416.311514464</v>
       </c>
       <c r="AE2" t="n">
-        <v>3555729.825355277</v>
+        <v>3731771.322529847</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.420736658950672e-07</v>
+        <v>1.479490213044515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.37977430555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>3216375.961321388</v>
+        <v>3375616.305081404</v>
       </c>
     </row>
     <row r="3">
@@ -49055,28 +49055,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1523.66493587164</v>
+        <v>1612.771718257306</v>
       </c>
       <c r="AB3" t="n">
-        <v>2084.745584612445</v>
+        <v>2206.665415386307</v>
       </c>
       <c r="AC3" t="n">
-        <v>1885.780391975837</v>
+        <v>1996.0643652162</v>
       </c>
       <c r="AD3" t="n">
-        <v>1523664.93587164</v>
+        <v>1612771.718257306</v>
       </c>
       <c r="AE3" t="n">
-        <v>2084745.584612445</v>
+        <v>2206665.415386307</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.167735882374425e-06</v>
+        <v>2.051665880748668e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.30078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1885780.391975837</v>
+        <v>1996064.3652162</v>
       </c>
     </row>
     <row r="4">
@@ -49161,28 +49161,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1296.313006026235</v>
+        <v>1385.41969890335</v>
       </c>
       <c r="AB4" t="n">
-        <v>1773.672644138703</v>
+        <v>1895.592352443017</v>
       </c>
       <c r="AC4" t="n">
-        <v>1604.395816347296</v>
+        <v>1714.679678806431</v>
       </c>
       <c r="AD4" t="n">
-        <v>1296313.006026235</v>
+        <v>1385419.69890335</v>
       </c>
       <c r="AE4" t="n">
-        <v>1773672.644138703</v>
+        <v>1895592.352443018</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.28768041810828e-06</v>
+        <v>2.262403698487905e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1604395.816347295</v>
+        <v>1714679.678806431</v>
       </c>
     </row>
     <row r="5">
@@ -49267,28 +49267,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1193.51772237303</v>
+        <v>1272.799530134529</v>
       </c>
       <c r="AB5" t="n">
-        <v>1633.023602036538</v>
+        <v>1741.500469082326</v>
       </c>
       <c r="AC5" t="n">
-        <v>1477.17012142119</v>
+        <v>1575.294108524368</v>
       </c>
       <c r="AD5" t="n">
-        <v>1193517.72237303</v>
+        <v>1272799.530134529</v>
       </c>
       <c r="AE5" t="n">
-        <v>1633023.602036538</v>
+        <v>1741500.469082326</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.350114601733291e-06</v>
+        <v>2.372098096227377e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.82899305555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1477170.12142119</v>
+        <v>1575294.108524368</v>
       </c>
     </row>
     <row r="6">
@@ -49373,28 +49373,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1138.637308419837</v>
+        <v>1217.748523980744</v>
       </c>
       <c r="AB6" t="n">
-        <v>1557.933798512792</v>
+        <v>1666.177253783733</v>
       </c>
       <c r="AC6" t="n">
-        <v>1409.24678335655</v>
+        <v>1507.159635177076</v>
       </c>
       <c r="AD6" t="n">
-        <v>1138637.308419837</v>
+        <v>1217748.523980744</v>
       </c>
       <c r="AE6" t="n">
-        <v>1557933.798512792</v>
+        <v>1666177.253783734</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.388126581038109e-06</v>
+        <v>2.438883644377907e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.39496527777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1409246.78335655</v>
+        <v>1507159.635177076</v>
       </c>
     </row>
     <row r="7">
@@ -49479,28 +49479,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1098.78419286167</v>
+        <v>1168.155864161533</v>
       </c>
       <c r="AB7" t="n">
-        <v>1503.405007610737</v>
+        <v>1598.32238874535</v>
       </c>
       <c r="AC7" t="n">
-        <v>1359.922143726548</v>
+        <v>1445.780743223055</v>
       </c>
       <c r="AD7" t="n">
-        <v>1098784.19286167</v>
+        <v>1168155.864161533</v>
       </c>
       <c r="AE7" t="n">
-        <v>1503405.007610737</v>
+        <v>1598322.38874535</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.415207654377033e-06</v>
+        <v>2.48646402194629e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.09982638888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1359922.143726548</v>
+        <v>1445780.743223055</v>
       </c>
     </row>
     <row r="8">
@@ -49585,28 +49585,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1059.256800101837</v>
+        <v>1138.453267008764</v>
       </c>
       <c r="AB8" t="n">
-        <v>1449.321885011238</v>
+        <v>1557.681984934829</v>
       </c>
       <c r="AC8" t="n">
-        <v>1311.000638441806</v>
+        <v>1409.019002513045</v>
       </c>
       <c r="AD8" t="n">
-        <v>1059256.800101837</v>
+        <v>1138453.267008764</v>
       </c>
       <c r="AE8" t="n">
-        <v>1449321.885011238</v>
+        <v>1557681.984934828</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.434312120659766e-06</v>
+        <v>2.520029815576349e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.90017361111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1311000.638441806</v>
+        <v>1409019.002513045</v>
       </c>
     </row>
     <row r="9">
@@ -49691,28 +49691,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1036.331221598325</v>
+        <v>1115.527688505252</v>
       </c>
       <c r="AB9" t="n">
-        <v>1417.954097097591</v>
+        <v>1526.314197021181</v>
       </c>
       <c r="AC9" t="n">
-        <v>1282.62654818167</v>
+        <v>1380.644912252909</v>
       </c>
       <c r="AD9" t="n">
-        <v>1036331.221598325</v>
+        <v>1115527.688505252</v>
       </c>
       <c r="AE9" t="n">
-        <v>1417954.097097591</v>
+        <v>1526314.197021181</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.447901895644389e-06</v>
+        <v>2.543906514137937e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.75911458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1282626.54818167</v>
+        <v>1380644.912252909</v>
       </c>
     </row>
     <row r="10">
@@ -49797,28 +49797,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1013.991758700392</v>
+        <v>1093.188225607319</v>
       </c>
       <c r="AB10" t="n">
-        <v>1387.388258413092</v>
+        <v>1495.748358336683</v>
       </c>
       <c r="AC10" t="n">
-        <v>1254.977870241796</v>
+        <v>1352.996234313035</v>
       </c>
       <c r="AD10" t="n">
-        <v>1013991.758700392</v>
+        <v>1093188.225607319</v>
       </c>
       <c r="AE10" t="n">
-        <v>1387388.258413092</v>
+        <v>1495748.358336683</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.459719091283193e-06</v>
+        <v>2.564668860713231e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.63975694444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>1254977.870241796</v>
+        <v>1352996.234313035</v>
       </c>
     </row>
     <row r="11">
@@ -49903,28 +49903,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>996.6596059156162</v>
+        <v>1075.856072822544</v>
       </c>
       <c r="AB11" t="n">
-        <v>1363.673642332347</v>
+        <v>1472.033742255938</v>
       </c>
       <c r="AC11" t="n">
-        <v>1233.526543836125</v>
+        <v>1331.544907907363</v>
       </c>
       <c r="AD11" t="n">
-        <v>996659.6059156163</v>
+        <v>1075856.072822544</v>
       </c>
       <c r="AE11" t="n">
-        <v>1363673.642332347</v>
+        <v>1472033.742255938</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.467991128230355e-06</v>
+        <v>2.579202503315937e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.55729166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1233526.543836125</v>
+        <v>1331544.907907363</v>
       </c>
     </row>
     <row r="12">
@@ -50009,28 +50009,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>978.8327252296193</v>
+        <v>1048.11905567491</v>
       </c>
       <c r="AB12" t="n">
-        <v>1339.282117711296</v>
+        <v>1434.082731723712</v>
       </c>
       <c r="AC12" t="n">
-        <v>1211.462912091187</v>
+        <v>1297.215888555755</v>
       </c>
       <c r="AD12" t="n">
-        <v>978832.7252296193</v>
+        <v>1048119.055674911</v>
       </c>
       <c r="AE12" t="n">
-        <v>1339282.117711296</v>
+        <v>1434082.731723712</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.475770782025901e-06</v>
+        <v>2.592871048144673e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.48133680555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>1211462.912091187</v>
+        <v>1297215.888555755</v>
       </c>
     </row>
     <row r="13">
@@ -50115,28 +50115,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>963.2866884128121</v>
+        <v>1032.573018858103</v>
       </c>
       <c r="AB13" t="n">
-        <v>1318.0113442958</v>
+        <v>1412.811958308216</v>
       </c>
       <c r="AC13" t="n">
-        <v>1192.222191436748</v>
+        <v>1277.975167901316</v>
       </c>
       <c r="AD13" t="n">
-        <v>963286.6884128121</v>
+        <v>1032573.018858103</v>
       </c>
       <c r="AE13" t="n">
-        <v>1318011.3442958</v>
+        <v>1412811.958308216</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.481285473324009e-06</v>
+        <v>2.602560143213144e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.42708333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1192222.191436748</v>
+        <v>1277975.167901316</v>
       </c>
     </row>
     <row r="14">
@@ -50221,28 +50221,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>947.0882630733398</v>
+        <v>1016.374593518631</v>
       </c>
       <c r="AB14" t="n">
-        <v>1295.847944122244</v>
+        <v>1390.64855813466</v>
       </c>
       <c r="AC14" t="n">
-        <v>1172.174035069229</v>
+        <v>1257.927011533797</v>
       </c>
       <c r="AD14" t="n">
-        <v>947088.2630733398</v>
+        <v>1016374.593518631</v>
       </c>
       <c r="AE14" t="n">
-        <v>1295847.944122244</v>
+        <v>1390648.55813466</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.487095594513087e-06</v>
+        <v>2.612768296945997e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.37065972222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>1172174.035069229</v>
+        <v>1257927.011533797</v>
       </c>
     </row>
     <row r="15">
@@ -50327,28 +50327,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>937.537653968042</v>
+        <v>1006.823984413333</v>
       </c>
       <c r="AB15" t="n">
-        <v>1282.780379401239</v>
+        <v>1377.580993413654</v>
       </c>
       <c r="AC15" t="n">
-        <v>1160.353620384754</v>
+        <v>1246.106596849322</v>
       </c>
       <c r="AD15" t="n">
-        <v>937537.653968042</v>
+        <v>1006823.984413333</v>
       </c>
       <c r="AE15" t="n">
-        <v>1282780.379401239</v>
+        <v>1377580.993413654</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.489557510271172e-06</v>
+        <v>2.61709378581585e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.34678819444444</v>
       </c>
       <c r="AH15" t="n">
-        <v>1160353.620384754</v>
+        <v>1246106.596849322</v>
       </c>
     </row>
     <row r="16">
@@ -50433,28 +50433,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>939.7621129771836</v>
+        <v>1009.048443422475</v>
       </c>
       <c r="AB16" t="n">
-        <v>1285.823982353751</v>
+        <v>1380.624596366167</v>
       </c>
       <c r="AC16" t="n">
-        <v>1163.106746143203</v>
+        <v>1248.859722607771</v>
       </c>
       <c r="AD16" t="n">
-        <v>939762.1129771837</v>
+        <v>1009048.443422475</v>
       </c>
       <c r="AE16" t="n">
-        <v>1285823.982353752</v>
+        <v>1380624.596366167</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.490345323313759e-06</v>
+        <v>2.618477942254203e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.34027777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>1163106.746143203</v>
+        <v>1248859.722607771</v>
       </c>
     </row>
   </sheetData>
@@ -50730,28 +50730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3744.247228788295</v>
+        <v>3908.203055437802</v>
       </c>
       <c r="AB2" t="n">
-        <v>5123.044242958034</v>
+        <v>5347.375838200477</v>
       </c>
       <c r="AC2" t="n">
-        <v>4634.10809064768</v>
+        <v>4837.029793291546</v>
       </c>
       <c r="AD2" t="n">
-        <v>3744247.228788295</v>
+        <v>3908203.055437801</v>
       </c>
       <c r="AE2" t="n">
-        <v>5123044.242958034</v>
+        <v>5347375.838200477</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.876107255094686e-07</v>
+        <v>1.175737711634754e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.95008680555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>4634108.09064768</v>
+        <v>4837029.793291546</v>
       </c>
     </row>
     <row r="3">
@@ -50836,28 +50836,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1905.588336268772</v>
+        <v>2008.167403992928</v>
       </c>
       <c r="AB3" t="n">
-        <v>2607.310030307064</v>
+        <v>2747.66323623633</v>
       </c>
       <c r="AC3" t="n">
-        <v>2358.472020397168</v>
+        <v>2485.430113339506</v>
       </c>
       <c r="AD3" t="n">
-        <v>1905588.336268772</v>
+        <v>2008167.403992928</v>
       </c>
       <c r="AE3" t="n">
-        <v>2607310.030307064</v>
+        <v>2747663.23623633</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.042423933166093e-06</v>
+        <v>1.782428755493758e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.75477430555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>2358472.020397168</v>
+        <v>2485430.113339506</v>
       </c>
     </row>
     <row r="4">
@@ -50942,28 +50942,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1572.912084224883</v>
+        <v>1665.062652976031</v>
       </c>
       <c r="AB4" t="n">
-        <v>2152.127705620201</v>
+        <v>2278.212179181693</v>
       </c>
       <c r="AC4" t="n">
-        <v>1946.731657926014</v>
+        <v>2060.782806291467</v>
       </c>
       <c r="AD4" t="n">
-        <v>1572912.084224883</v>
+        <v>1665062.652976031</v>
       </c>
       <c r="AE4" t="n">
-        <v>2152127.705620201</v>
+        <v>2278212.179181693</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.178598566219652e-06</v>
+        <v>2.015272202388027e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.47395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1946731.657926014</v>
+        <v>2060782.806291468</v>
       </c>
     </row>
     <row r="5">
@@ -51048,28 +51048,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1431.122819133511</v>
+        <v>1513.100821966815</v>
       </c>
       <c r="AB5" t="n">
-        <v>1958.125377821287</v>
+        <v>2070.291297912051</v>
       </c>
       <c r="AC5" t="n">
-        <v>1771.244640008251</v>
+        <v>1872.70560211141</v>
       </c>
       <c r="AD5" t="n">
-        <v>1431122.819133512</v>
+        <v>1513100.821966815</v>
       </c>
       <c r="AE5" t="n">
-        <v>1958125.377821287</v>
+        <v>2070291.297912051</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.250624034155298e-06</v>
+        <v>2.138427725867295e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.46701388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1771244.640008251</v>
+        <v>1872705.60211141</v>
       </c>
     </row>
     <row r="6">
@@ -51154,28 +51154,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1348.211853630609</v>
+        <v>1440.362332873205</v>
       </c>
       <c r="AB6" t="n">
-        <v>1844.68293704657</v>
+        <v>1970.767288138514</v>
       </c>
       <c r="AC6" t="n">
-        <v>1668.628986563608</v>
+        <v>1782.680024147835</v>
       </c>
       <c r="AD6" t="n">
-        <v>1348211.853630609</v>
+        <v>1440362.332873205</v>
       </c>
       <c r="AE6" t="n">
-        <v>1844682.93704657</v>
+        <v>1970767.288138514</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.294180937689502e-06</v>
+        <v>2.212905176825114e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.91362847222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1668628.986563608</v>
+        <v>1782680.024147835</v>
       </c>
     </row>
     <row r="7">
@@ -51260,28 +51260,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1298.661491336001</v>
+        <v>1380.724745515325</v>
       </c>
       <c r="AB7" t="n">
-        <v>1776.885945347384</v>
+        <v>1889.168510090797</v>
       </c>
       <c r="AC7" t="n">
-        <v>1607.302444598517</v>
+        <v>1708.868918952388</v>
       </c>
       <c r="AD7" t="n">
-        <v>1298661.491336001</v>
+        <v>1380724.745515325</v>
       </c>
       <c r="AE7" t="n">
-        <v>1776885.945347384</v>
+        <v>1889168.510090797</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.324832092028387e-06</v>
+        <v>2.265315234906541e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.54470486111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1607302.444598517</v>
+        <v>1708868.918952388</v>
       </c>
     </row>
     <row r="8">
@@ -51366,28 +51366,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1263.490653820727</v>
+        <v>1345.38331579946</v>
       </c>
       <c r="AB8" t="n">
-        <v>1728.763653831145</v>
+        <v>1840.81280679971</v>
       </c>
       <c r="AC8" t="n">
-        <v>1563.772877044527</v>
+        <v>1665.128216115747</v>
       </c>
       <c r="AD8" t="n">
-        <v>1263490.653820727</v>
+        <v>1345383.31579946</v>
       </c>
       <c r="AE8" t="n">
-        <v>1728763.653831145</v>
+        <v>1840812.80679971</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.346563096188153e-06</v>
+        <v>2.302472830264582e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.29296875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1563772.877044527</v>
+        <v>1665128.216115747</v>
       </c>
     </row>
     <row r="9">
@@ -51472,28 +51472,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1234.181200832347</v>
+        <v>1305.986637747807</v>
       </c>
       <c r="AB9" t="n">
-        <v>1688.661167210635</v>
+        <v>1786.908533830669</v>
       </c>
       <c r="AC9" t="n">
-        <v>1527.497715462885</v>
+        <v>1616.368491303748</v>
       </c>
       <c r="AD9" t="n">
-        <v>1234181.200832347</v>
+        <v>1305986.637747807</v>
       </c>
       <c r="AE9" t="n">
-        <v>1688661.167210635</v>
+        <v>1786908.533830669</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.364118710902375e-06</v>
+        <v>2.332490974986143e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.09765625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1527497.715462885</v>
+        <v>1616368.491303748</v>
       </c>
     </row>
     <row r="10">
@@ -51578,28 +51578,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1201.18848768473</v>
+        <v>1283.166401009483</v>
       </c>
       <c r="AB10" t="n">
-        <v>1643.519081546289</v>
+        <v>1755.684879167504</v>
       </c>
       <c r="AC10" t="n">
-        <v>1486.663927097029</v>
+        <v>1588.124778418961</v>
       </c>
       <c r="AD10" t="n">
-        <v>1201188.48768473</v>
+        <v>1283166.401009483</v>
       </c>
       <c r="AE10" t="n">
-        <v>1643519.081546289</v>
+        <v>1755684.879167504</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.377024460097695e-06</v>
+        <v>2.354558367862533e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.95442708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1486663.927097029</v>
+        <v>1588124.778418961</v>
       </c>
     </row>
     <row r="11">
@@ -51684,28 +51684,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1179.558172416372</v>
+        <v>1261.536085741125</v>
       </c>
       <c r="AB11" t="n">
-        <v>1613.923529933959</v>
+        <v>1726.089327555174</v>
       </c>
       <c r="AC11" t="n">
-        <v>1459.892933392962</v>
+        <v>1561.353784714894</v>
       </c>
       <c r="AD11" t="n">
-        <v>1179558.172416372</v>
+        <v>1261536.085741125</v>
       </c>
       <c r="AE11" t="n">
-        <v>1613923.529933959</v>
+        <v>1726089.327555174</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.389076152360972e-06</v>
+        <v>2.37516541856328e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.82638888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>1459892.933392962</v>
+        <v>1561353.784714894</v>
       </c>
     </row>
     <row r="12">
@@ -51790,28 +51790,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1164.876827516754</v>
+        <v>1246.854740841507</v>
       </c>
       <c r="AB12" t="n">
-        <v>1593.835866147077</v>
+        <v>1706.001663768292</v>
       </c>
       <c r="AC12" t="n">
-        <v>1441.722408044686</v>
+        <v>1543.183259366619</v>
       </c>
       <c r="AD12" t="n">
-        <v>1164876.827516754</v>
+        <v>1246854.740841507</v>
       </c>
       <c r="AE12" t="n">
-        <v>1593835.866147076</v>
+        <v>1706001.663768291</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.396288188676003e-06</v>
+        <v>2.387497196935381e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.74826388888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>1441722.408044686</v>
+        <v>1543183.259366619</v>
       </c>
     </row>
     <row r="13">
@@ -51896,28 +51896,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1148.036029465492</v>
+        <v>1230.013942790245</v>
       </c>
       <c r="AB13" t="n">
-        <v>1570.793543289765</v>
+        <v>1682.95934091098</v>
       </c>
       <c r="AC13" t="n">
-        <v>1420.879212140774</v>
+        <v>1522.340063462706</v>
       </c>
       <c r="AD13" t="n">
-        <v>1148036.029465492</v>
+        <v>1230013.942790245</v>
       </c>
       <c r="AE13" t="n">
-        <v>1570793.543289765</v>
+        <v>1682959.34091098</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.404164491493735e-06</v>
+        <v>2.400964796999649e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.66579861111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>1420879.212140774</v>
+        <v>1522340.063462706</v>
       </c>
     </row>
     <row r="14">
@@ -52002,28 +52002,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1135.037643016615</v>
+        <v>1217.015556341368</v>
       </c>
       <c r="AB14" t="n">
-        <v>1553.008577502075</v>
+        <v>1665.174375123289</v>
       </c>
       <c r="AC14" t="n">
-        <v>1404.791618526504</v>
+        <v>1506.252469848436</v>
       </c>
       <c r="AD14" t="n">
-        <v>1135037.643016615</v>
+        <v>1217015.556341368</v>
       </c>
       <c r="AE14" t="n">
-        <v>1553008.577502075</v>
+        <v>1665174.375123289</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.409858204374024e-06</v>
+        <v>2.410700411503938e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.60720486111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>1404791.618526504</v>
+        <v>1506252.469848436</v>
       </c>
     </row>
     <row r="15">
@@ -52108,28 +52108,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1121.331560436189</v>
+        <v>1203.309473760942</v>
       </c>
       <c r="AB15" t="n">
-        <v>1534.255310645847</v>
+        <v>1646.421108267062</v>
       </c>
       <c r="AC15" t="n">
-        <v>1387.82813713866</v>
+        <v>1489.288988460592</v>
       </c>
       <c r="AD15" t="n">
-        <v>1121331.560436189</v>
+        <v>1203309.473760942</v>
       </c>
       <c r="AE15" t="n">
-        <v>1534255.310645847</v>
+        <v>1646421.108267062</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.415836602898326e-06</v>
+        <v>2.420922806733443e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.54644097222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>1387828.13713866</v>
+        <v>1489288.988460592</v>
       </c>
     </row>
     <row r="16">
@@ -52214,28 +52214,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1109.000985590373</v>
+        <v>1180.721081651261</v>
       </c>
       <c r="AB16" t="n">
-        <v>1517.384074155232</v>
+        <v>1615.514673653069</v>
       </c>
       <c r="AC16" t="n">
-        <v>1372.56706777978</v>
+        <v>1461.332220588705</v>
       </c>
       <c r="AD16" t="n">
-        <v>1109000.985590373</v>
+        <v>1180721.081651261</v>
       </c>
       <c r="AE16" t="n">
-        <v>1517384.074155232</v>
+        <v>1615514.673653069</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.420960944490586e-06</v>
+        <v>2.429684859787304e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.4921875</v>
       </c>
       <c r="AH16" t="n">
-        <v>1372567.06777978</v>
+        <v>1461332.220588705</v>
       </c>
     </row>
     <row r="17">
@@ -52320,28 +52320,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1096.003110003429</v>
+        <v>1167.723206064318</v>
       </c>
       <c r="AB17" t="n">
-        <v>1499.599807351376</v>
+        <v>1597.730406849213</v>
       </c>
       <c r="AC17" t="n">
-        <v>1356.480106439308</v>
+        <v>1445.245259248233</v>
       </c>
       <c r="AD17" t="n">
-        <v>1096003.110003429</v>
+        <v>1167723.206064318</v>
       </c>
       <c r="AE17" t="n">
-        <v>1499599.807351376</v>
+        <v>1597730.406849213</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.42580060043883e-06</v>
+        <v>2.437960132115951e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.44444444444444</v>
       </c>
       <c r="AH17" t="n">
-        <v>1356480.106439308</v>
+        <v>1445245.259248233</v>
       </c>
     </row>
     <row r="18">
@@ -52426,28 +52426,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1085.58088521815</v>
+        <v>1157.300981279038</v>
       </c>
       <c r="AB18" t="n">
-        <v>1485.33965960405</v>
+        <v>1583.470259101886</v>
       </c>
       <c r="AC18" t="n">
-        <v>1343.580927178743</v>
+        <v>1432.346079987668</v>
       </c>
       <c r="AD18" t="n">
-        <v>1085580.88521815</v>
+        <v>1157300.981279038</v>
       </c>
       <c r="AE18" t="n">
-        <v>1485339.65960405</v>
+        <v>1583470.259101886</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.428837247308318e-06</v>
+        <v>2.443152459851572e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.4140625</v>
       </c>
       <c r="AH18" t="n">
-        <v>1343580.927178744</v>
+        <v>1432346.079987668</v>
       </c>
     </row>
     <row r="19">
@@ -52532,28 +52532,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1075.037617942646</v>
+        <v>1146.757714003535</v>
       </c>
       <c r="AB19" t="n">
-        <v>1470.91389618158</v>
+        <v>1569.044495679417</v>
       </c>
       <c r="AC19" t="n">
-        <v>1330.531938370629</v>
+        <v>1419.297091179554</v>
       </c>
       <c r="AD19" t="n">
-        <v>1075037.617942646</v>
+        <v>1146757.714003535</v>
       </c>
       <c r="AE19" t="n">
-        <v>1470913.89618158</v>
+        <v>1569044.495679417</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.432348370251162e-06</v>
+        <v>2.449156088795884e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.37717013888889</v>
       </c>
       <c r="AH19" t="n">
-        <v>1330531.938370629</v>
+        <v>1419297.091179554</v>
       </c>
     </row>
     <row r="20">
@@ -52638,28 +52638,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1064.324802585737</v>
+        <v>1136.044898646625</v>
       </c>
       <c r="AB20" t="n">
-        <v>1456.256149594199</v>
+        <v>1554.386749092036</v>
       </c>
       <c r="AC20" t="n">
-        <v>1317.273106545271</v>
+        <v>1406.038259354196</v>
       </c>
       <c r="AD20" t="n">
-        <v>1064324.802585737</v>
+        <v>1136044.898646625</v>
       </c>
       <c r="AE20" t="n">
-        <v>1456256.149594199</v>
+        <v>1554386.749092036</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.435005436261963e-06</v>
+        <v>2.453699375564553e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.35112847222222</v>
       </c>
       <c r="AH20" t="n">
-        <v>1317273.106545271</v>
+        <v>1406038.259354196</v>
       </c>
     </row>
     <row r="21">
@@ -52744,28 +52744,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1051.369789050415</v>
+        <v>1123.089885111304</v>
       </c>
       <c r="AB21" t="n">
-        <v>1438.530528540313</v>
+        <v>1536.661128038149</v>
       </c>
       <c r="AC21" t="n">
-        <v>1301.239193886702</v>
+        <v>1390.004346695627</v>
       </c>
       <c r="AD21" t="n">
-        <v>1051369.789050415</v>
+        <v>1123089.885111304</v>
       </c>
       <c r="AE21" t="n">
-        <v>1438530.528540313</v>
+        <v>1536661.128038149</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.43804208313145e-06</v>
+        <v>2.458891703300174e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.32074652777778</v>
       </c>
       <c r="AH21" t="n">
-        <v>1301239.193886702</v>
+        <v>1390004.346695627</v>
       </c>
     </row>
     <row r="22">
@@ -52850,28 +52850,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1050.057620367936</v>
+        <v>1121.777716428825</v>
       </c>
       <c r="AB22" t="n">
-        <v>1436.735161460148</v>
+        <v>1534.865760957985</v>
       </c>
       <c r="AC22" t="n">
-        <v>1299.615174120854</v>
+        <v>1388.380326929779</v>
       </c>
       <c r="AD22" t="n">
-        <v>1050057.620367936</v>
+        <v>1121777.716428825</v>
       </c>
       <c r="AE22" t="n">
-        <v>1436735.161460148</v>
+        <v>1534865.760957985</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.437662502272764e-06</v>
+        <v>2.458242662333221e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>14.32508680555556</v>
       </c>
       <c r="AH22" t="n">
-        <v>1299615.174120854</v>
+        <v>1388380.326929779</v>
       </c>
     </row>
     <row r="23">
@@ -52956,28 +52956,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1053.397961465789</v>
+        <v>1125.118057526677</v>
       </c>
       <c r="AB23" t="n">
-        <v>1441.305563515678</v>
+        <v>1539.436163013515</v>
       </c>
       <c r="AC23" t="n">
-        <v>1303.749383418804</v>
+        <v>1392.514536227729</v>
       </c>
       <c r="AD23" t="n">
-        <v>1053397.961465789</v>
+        <v>1125118.057526677</v>
       </c>
       <c r="AE23" t="n">
-        <v>1441305.563515678</v>
+        <v>1539436.163013515</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.437472711843421e-06</v>
+        <v>2.457918141849745e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>14.32508680555556</v>
       </c>
       <c r="AH23" t="n">
-        <v>1303749.383418805</v>
+        <v>1392514.536227729</v>
       </c>
     </row>
   </sheetData>
@@ -53253,28 +53253,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>486.4988628956288</v>
+        <v>551.5170392835862</v>
       </c>
       <c r="AB2" t="n">
-        <v>665.6492070288616</v>
+        <v>754.6099443623658</v>
       </c>
       <c r="AC2" t="n">
-        <v>602.1205809545561</v>
+        <v>682.5910303741296</v>
       </c>
       <c r="AD2" t="n">
-        <v>486498.8628956288</v>
+        <v>551517.0392835862</v>
       </c>
       <c r="AE2" t="n">
-        <v>665649.2070288616</v>
+        <v>754609.9443623658</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.645266144797278e-06</v>
+        <v>3.526563142193355e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.08289930555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>602120.5809545561</v>
+        <v>682591.0303741295</v>
       </c>
     </row>
   </sheetData>
@@ -53550,28 +53550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1575.737464228848</v>
+        <v>1678.81280710015</v>
       </c>
       <c r="AB2" t="n">
-        <v>2155.993515188594</v>
+        <v>2297.0257466683</v>
       </c>
       <c r="AC2" t="n">
-        <v>1950.228520054898</v>
+        <v>2077.80083330216</v>
       </c>
       <c r="AD2" t="n">
-        <v>1575737.464228848</v>
+        <v>1678812.80710015</v>
       </c>
       <c r="AE2" t="n">
-        <v>2155993.515188594</v>
+        <v>2297025.7466683</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.088595289847302e-06</v>
+        <v>2.005663379575667e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1950228.520054898</v>
+        <v>2077800.83330216</v>
       </c>
     </row>
     <row r="3">
@@ -53656,28 +53656,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1082.98329384092</v>
+        <v>1167.302148762063</v>
       </c>
       <c r="AB3" t="n">
-        <v>1481.785520484079</v>
+        <v>1597.15429767253</v>
       </c>
       <c r="AC3" t="n">
-        <v>1340.365990108118</v>
+        <v>1444.724133122799</v>
       </c>
       <c r="AD3" t="n">
-        <v>1082983.29384092</v>
+        <v>1167302.148762063</v>
       </c>
       <c r="AE3" t="n">
-        <v>1481785.520484079</v>
+        <v>1597154.29767253</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.359698993943298e-06</v>
+        <v>2.505153664389346e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.68185763888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1340365.990108118</v>
+        <v>1444724.133122799</v>
       </c>
     </row>
     <row r="4">
@@ -53762,28 +53762,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>956.5307796314518</v>
+        <v>1031.556731432087</v>
       </c>
       <c r="AB4" t="n">
-        <v>1308.767611851483</v>
+        <v>1411.421429016504</v>
       </c>
       <c r="AC4" t="n">
-        <v>1183.860667843257</v>
+        <v>1276.717348773585</v>
       </c>
       <c r="AD4" t="n">
-        <v>956530.7796314518</v>
+        <v>1031556.731432087</v>
       </c>
       <c r="AE4" t="n">
-        <v>1308767.611851483</v>
+        <v>1411421.429016504</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.45658146645563e-06</v>
+        <v>2.683653083827388e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.57074652777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1183860.667843257</v>
+        <v>1276717.348773585</v>
       </c>
     </row>
     <row r="5">
@@ -53868,28 +53868,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>898.8387025053087</v>
+        <v>964.4864998394155</v>
       </c>
       <c r="AB5" t="n">
-        <v>1229.830766732682</v>
+        <v>1319.652979221623</v>
       </c>
       <c r="AC5" t="n">
-        <v>1112.457444434036</v>
+        <v>1193.7071510293</v>
       </c>
       <c r="AD5" t="n">
-        <v>898838.7025053087</v>
+        <v>964486.4998394155</v>
       </c>
       <c r="AE5" t="n">
-        <v>1229830.766732682</v>
+        <v>1319652.979221623</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.50444788761059e-06</v>
+        <v>2.771843735502278e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.07595486111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1112457.444434036</v>
+        <v>1193707.1510293</v>
       </c>
     </row>
     <row r="6">
@@ -53974,28 +53974,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>849.1724965992341</v>
+        <v>924.1131075452978</v>
       </c>
       <c r="AB6" t="n">
-        <v>1161.875272693628</v>
+        <v>1264.412322736451</v>
       </c>
       <c r="AC6" t="n">
-        <v>1050.987527369934</v>
+        <v>1143.738585268324</v>
       </c>
       <c r="AD6" t="n">
-        <v>849172.4965992342</v>
+        <v>924113.1075452978</v>
       </c>
       <c r="AE6" t="n">
-        <v>1161875.272693628</v>
+        <v>1264412.322736451</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.534338272873294e-06</v>
+        <v>2.826914753797078e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.78298611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1050987.527369934</v>
+        <v>1143738.585268324</v>
       </c>
     </row>
     <row r="7">
@@ -54080,28 +54080,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>818.9302509707236</v>
+        <v>893.8708619167871</v>
       </c>
       <c r="AB7" t="n">
-        <v>1120.496498030985</v>
+        <v>1223.033548073808</v>
       </c>
       <c r="AC7" t="n">
-        <v>1013.557884885619</v>
+        <v>1106.308942784009</v>
       </c>
       <c r="AD7" t="n">
-        <v>818930.2509707236</v>
+        <v>893870.8619167871</v>
       </c>
       <c r="AE7" t="n">
-        <v>1120496.498030985</v>
+        <v>1223033.548073808</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.553568450804545e-06</v>
+        <v>2.862345059273453e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.59852430555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1013557.884885619</v>
+        <v>1106308.942784009</v>
       </c>
     </row>
     <row r="8">
@@ -54186,28 +54186,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>791.7081491698823</v>
+        <v>857.2706056494175</v>
       </c>
       <c r="AB8" t="n">
-        <v>1083.250017392701</v>
+        <v>1172.955462759445</v>
       </c>
       <c r="AC8" t="n">
-        <v>979.8661560836896</v>
+        <v>1061.010239647014</v>
       </c>
       <c r="AD8" t="n">
-        <v>791708.1491698823</v>
+        <v>857270.6056494175</v>
       </c>
       <c r="AE8" t="n">
-        <v>1083250.017392701</v>
+        <v>1172955.462759445</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.568827178945646e-06</v>
+        <v>2.890458236444925e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.45746527777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>979866.1560836895</v>
+        <v>1061010.239647015</v>
       </c>
     </row>
     <row r="9">
@@ -54292,28 +54292,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>792.2874954671825</v>
+        <v>857.8499519467177</v>
       </c>
       <c r="AB9" t="n">
-        <v>1084.042704555623</v>
+        <v>1173.748149922366</v>
       </c>
       <c r="AC9" t="n">
-        <v>980.5831902963248</v>
+        <v>1061.72727385965</v>
       </c>
       <c r="AD9" t="n">
-        <v>792287.4954671825</v>
+        <v>857849.9519467177</v>
       </c>
       <c r="AE9" t="n">
-        <v>1084042.704555623</v>
+        <v>1173748.149922366</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.569245226291977e-06</v>
+        <v>2.89122846047702e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.453125</v>
       </c>
       <c r="AH9" t="n">
-        <v>980583.1902963248</v>
+        <v>1061727.27385965</v>
       </c>
     </row>
   </sheetData>
@@ -54589,28 +54589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2145.892189170936</v>
+        <v>2262.286767861176</v>
       </c>
       <c r="AB2" t="n">
-        <v>2936.104363305582</v>
+        <v>3095.360560836149</v>
       </c>
       <c r="AC2" t="n">
-        <v>2655.886683720052</v>
+        <v>2799.943693275662</v>
       </c>
       <c r="AD2" t="n">
-        <v>2145892.189170937</v>
+        <v>2262286.767861176</v>
       </c>
       <c r="AE2" t="n">
-        <v>2936104.363305582</v>
+        <v>3095360.560836148</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.324686806737276e-07</v>
+        <v>1.665787248062609e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.41796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2655886.683720052</v>
+        <v>2799943.693275662</v>
       </c>
     </row>
     <row r="3">
@@ -54695,28 +54695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1343.145334350256</v>
+        <v>1430.569212518377</v>
       </c>
       <c r="AB3" t="n">
-        <v>1837.750701848136</v>
+        <v>1957.36790882706</v>
       </c>
       <c r="AC3" t="n">
-        <v>1662.358354163058</v>
+        <v>1770.559462791719</v>
       </c>
       <c r="AD3" t="n">
-        <v>1343145.334350256</v>
+        <v>1430569.212518377</v>
       </c>
       <c r="AE3" t="n">
-        <v>1837750.701848136</v>
+        <v>1957367.90882706</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.237857959387957e-06</v>
+        <v>2.211342907701114e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.64105902777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1662358.354163059</v>
+        <v>1770559.462791719</v>
       </c>
     </row>
     <row r="4">
@@ -54801,28 +54801,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1167.099241625815</v>
+        <v>1244.724104207013</v>
       </c>
       <c r="AB4" t="n">
-        <v>1596.876671177084</v>
+        <v>1703.086432727923</v>
       </c>
       <c r="AC4" t="n">
-        <v>1444.473002910427</v>
+        <v>1540.54625388519</v>
       </c>
       <c r="AD4" t="n">
-        <v>1167099.241625814</v>
+        <v>1244724.104207013</v>
       </c>
       <c r="AE4" t="n">
-        <v>1596876.671177084</v>
+        <v>1703086.432727923</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.348542706203658e-06</v>
+        <v>2.409073130304855e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.19357638888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1444473.002910427</v>
+        <v>1540546.25388519</v>
       </c>
     </row>
     <row r="5">
@@ -54907,28 +54907,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1080.726729329396</v>
+        <v>1158.436843256615</v>
       </c>
       <c r="AB5" t="n">
-        <v>1478.697989366813</v>
+        <v>1585.024395570301</v>
       </c>
       <c r="AC5" t="n">
-        <v>1337.573128627306</v>
+        <v>1433.751891852782</v>
       </c>
       <c r="AD5" t="n">
-        <v>1080726.729329396</v>
+        <v>1158436.843256615</v>
       </c>
       <c r="AE5" t="n">
-        <v>1478697.989366813</v>
+        <v>1585024.395570301</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.405092549576771e-06</v>
+        <v>2.510095298580585e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.54036458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1337573.128627306</v>
+        <v>1433751.891852782</v>
       </c>
     </row>
     <row r="6">
@@ -55013,28 +55013,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1030.894598351942</v>
+        <v>1098.89103754681</v>
       </c>
       <c r="AB6" t="n">
-        <v>1410.515469325</v>
+        <v>1503.5511972226</v>
       </c>
       <c r="AC6" t="n">
-        <v>1275.897852603516</v>
+        <v>1360.054381207034</v>
       </c>
       <c r="AD6" t="n">
-        <v>1030894.598351942</v>
+        <v>1098891.03754681</v>
       </c>
       <c r="AE6" t="n">
-        <v>1410515.469325</v>
+        <v>1503551.1972226</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.442121628511478e-06</v>
+        <v>2.576245045778928e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.14105902777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1275897.852603516</v>
+        <v>1360054.381207034</v>
       </c>
     </row>
     <row r="7">
@@ -55119,28 +55119,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>986.6192343774173</v>
+        <v>1064.244007450065</v>
       </c>
       <c r="AB7" t="n">
-        <v>1349.935963043853</v>
+        <v>1456.145602125143</v>
       </c>
       <c r="AC7" t="n">
-        <v>1221.09996937797</v>
+        <v>1317.173109571507</v>
       </c>
       <c r="AD7" t="n">
-        <v>986619.2343774174</v>
+        <v>1064244.007450065</v>
       </c>
       <c r="AE7" t="n">
-        <v>1349935.963043852</v>
+        <v>1456145.602125143</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.465667292834091e-06</v>
+        <v>2.618307656769178e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.89800347222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1221099.96937797</v>
+        <v>1317173.109571507</v>
       </c>
     </row>
     <row r="8">
@@ -55225,28 +55225,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>960.1361556795509</v>
+        <v>1037.760928752198</v>
       </c>
       <c r="AB8" t="n">
-        <v>1313.700646418458</v>
+        <v>1419.910285499748</v>
       </c>
       <c r="AC8" t="n">
-        <v>1188.322900514717</v>
+        <v>1284.396040708254</v>
       </c>
       <c r="AD8" t="n">
-        <v>960136.155679551</v>
+        <v>1037760.928752198</v>
       </c>
       <c r="AE8" t="n">
-        <v>1313700.646418458</v>
+        <v>1419910.285499748</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.482068759862236e-06</v>
+        <v>2.647607680664096e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.73524305555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1188322.900514717</v>
+        <v>1284396.040708254</v>
       </c>
     </row>
     <row r="9">
@@ -55331,28 +55331,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>935.8570120843622</v>
+        <v>1013.48178515701</v>
       </c>
       <c r="AB9" t="n">
-        <v>1280.480851031301</v>
+        <v>1386.690490112592</v>
       </c>
       <c r="AC9" t="n">
-        <v>1158.273555775035</v>
+        <v>1254.346695968571</v>
       </c>
       <c r="AD9" t="n">
-        <v>935857.0120843622</v>
+        <v>1013481.785157009</v>
       </c>
       <c r="AE9" t="n">
-        <v>1280480.851031301</v>
+        <v>1386690.490112592</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.49575341946854e-06</v>
+        <v>2.672054326367831e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.59852430555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1158273.555775034</v>
+        <v>1254346.695968571</v>
       </c>
     </row>
     <row r="10">
@@ -55437,28 +55437,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>915.2521311346176</v>
+        <v>983.333821675506</v>
       </c>
       <c r="AB10" t="n">
-        <v>1252.288343892668</v>
+        <v>1345.440716442918</v>
       </c>
       <c r="AC10" t="n">
-        <v>1132.771701949281</v>
+        <v>1217.033742803511</v>
       </c>
       <c r="AD10" t="n">
-        <v>915252.1311346176</v>
+        <v>983333.821675506</v>
       </c>
       <c r="AE10" t="n">
-        <v>1252288.343892668</v>
+        <v>1345440.716442918</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.505513801687743e-06</v>
+        <v>2.689490536906524e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.50303819444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>1132771.701949281</v>
+        <v>1217033.742803511</v>
       </c>
     </row>
     <row r="11">
@@ -55543,28 +55543,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>895.3096491984281</v>
+        <v>963.2207475387243</v>
       </c>
       <c r="AB11" t="n">
-        <v>1225.002160307364</v>
+        <v>1317.921121082767</v>
       </c>
       <c r="AC11" t="n">
-        <v>1108.089673428959</v>
+        <v>1192.140579000538</v>
       </c>
       <c r="AD11" t="n">
-        <v>895309.6491984281</v>
+        <v>963220.7475387242</v>
       </c>
       <c r="AE11" t="n">
-        <v>1225002.160307364</v>
+        <v>1317921.121082767</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.514670448924315e-06</v>
+        <v>2.705848218958289e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.41623263888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>1108089.673428959</v>
+        <v>1192140.579000538</v>
       </c>
     </row>
     <row r="12">
@@ -55649,28 +55649,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>881.6275499659998</v>
+        <v>949.538648306296</v>
       </c>
       <c r="AB12" t="n">
-        <v>1206.281708525938</v>
+        <v>1299.200669301341</v>
       </c>
       <c r="AC12" t="n">
-        <v>1091.155875291233</v>
+        <v>1175.206780862812</v>
       </c>
       <c r="AD12" t="n">
-        <v>881627.5499659998</v>
+        <v>949538.648306296</v>
       </c>
       <c r="AE12" t="n">
-        <v>1206281.708525938</v>
+        <v>1299200.669301341</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.519600951282469e-06</v>
+        <v>2.714656201601546e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.37065972222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>1091155.875291233</v>
+        <v>1175206.780862812</v>
       </c>
     </row>
     <row r="13">
@@ -55755,28 +55755,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>883.3344399841625</v>
+        <v>951.2455383244585</v>
       </c>
       <c r="AB13" t="n">
-        <v>1208.617150751462</v>
+        <v>1301.536111526864</v>
       </c>
       <c r="AC13" t="n">
-        <v>1093.268426188566</v>
+        <v>1177.319331760145</v>
       </c>
       <c r="AD13" t="n">
-        <v>883334.4399841625</v>
+        <v>951245.5383244585</v>
       </c>
       <c r="AE13" t="n">
-        <v>1208617.150751462</v>
+        <v>1301536.111526865</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.518795971305627e-06</v>
+        <v>2.713218163618974e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.37717013888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>1093268.426188566</v>
+        <v>1177319.331760145</v>
       </c>
     </row>
   </sheetData>
